--- a/System-Design-Architecture/Documents.xlsx
+++ b/System-Design-Architecture/Documents.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="500">
   <si>
     <t xml:space="preserve">Kiến Trúc về Microservice</t>
   </si>
@@ -930,7 +930,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Requirement</t>
+    <t xml:space="preserve">Gathering Requirement</t>
   </si>
   <si>
     <r>
@@ -1013,6 +1013,20 @@
     <t xml:space="preserve"> - The best thing you can do is let the customer talk. And pay attention to WHAT the system needs to do, you can figure out how the system will do those things later.
  - Sometimes even the customer doesn't know what the really want! So you've got to ask the customer questions to figure out what before you can determine exactly what the system should do. Then, you can begin to think beyond(suy nghĩ vượt qua) what the customers asked for and anticipate(dự đoán) their needs, even before they realize they have a problem.
  - The best way to get good requirements is to understand what system is supposed to do(Hệ thống được cho là để làm j).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternate path</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - An alternate path is one or more steps that a use case has that are optional, or provide alternate ways to work through the use case.
+ - Alternate path can be additional steps added to the main path, or provide steps that allow you to get to the goal in a totally different way than parts of the main path.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - A complete path through a use case, from the first step to the last, is called a scenario.
+ - Most use cases have several different scenarios, but they always share the same user goal.</t>
   </si>
   <si>
     <t xml:space="preserve">Analysis</t>
@@ -11740,28 +11754,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11769,119 +11783,119 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11893,19 +11907,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11917,7 +11931,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11925,11 +11939,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11937,11 +11951,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11949,19 +11963,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11969,7 +11983,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11985,23 +12003,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12009,19 +12027,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12033,7 +12051,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12123,9 +12141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590040</xdr:colOff>
+      <xdr:colOff>589680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2122920</xdr:rowOff>
+      <xdr:rowOff>2122560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12139,7 +12157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10237320" y="8324640"/>
-          <a:ext cx="4802760" cy="2800080"/>
+          <a:ext cx="4802400" cy="2799720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12160,9 +12178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>666000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1798920</xdr:rowOff>
+      <xdr:rowOff>1798560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12176,7 +12194,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10323000" y="11420280"/>
-          <a:ext cx="4793400" cy="2495160"/>
+          <a:ext cx="4793040" cy="2494800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12197,9 +12215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523440</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>697680</xdr:rowOff>
+      <xdr:rowOff>697320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12213,7 +12231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10170720" y="24355440"/>
-          <a:ext cx="4802760" cy="2904840"/>
+          <a:ext cx="4802400" cy="2904480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12239,9 +12257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>281520</xdr:rowOff>
+      <xdr:rowOff>281160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12254,8 +12272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15396840" y="67237200"/>
-          <a:ext cx="2793960" cy="1210320"/>
+          <a:off x="15397560" y="67237200"/>
+          <a:ext cx="2793240" cy="1209960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12276,9 +12294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12291,8 +12309,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18540000" y="67199040"/>
-          <a:ext cx="2575800" cy="1285920"/>
+          <a:off x="18540720" y="67199040"/>
+          <a:ext cx="2575440" cy="1285560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12313,9 +12331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210600</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>337680</xdr:rowOff>
+      <xdr:rowOff>337320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12328,8 +12346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15444360" y="68999400"/>
-          <a:ext cx="4565880" cy="1333080"/>
+          <a:off x="15445080" y="68999400"/>
+          <a:ext cx="4565520" cy="1332720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12350,9 +12368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>294480</xdr:colOff>
+      <xdr:colOff>294120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>281520</xdr:rowOff>
+      <xdr:rowOff>281160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12365,8 +12383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15396840" y="67237200"/>
-          <a:ext cx="2793960" cy="1210320"/>
+          <a:off x="15397560" y="67237200"/>
+          <a:ext cx="2793240" cy="1209960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12387,9 +12405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12402,8 +12420,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18540000" y="67199040"/>
-          <a:ext cx="2575800" cy="1285920"/>
+          <a:off x="18540720" y="67199040"/>
+          <a:ext cx="2575440" cy="1285560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12424,9 +12442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210600</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>337680</xdr:rowOff>
+      <xdr:rowOff>337320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12439,8 +12457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15444360" y="68999400"/>
-          <a:ext cx="4565880" cy="1333080"/>
+          <a:off x="15445080" y="68999400"/>
+          <a:ext cx="4565520" cy="1332720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12466,9 +12484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>391320</xdr:rowOff>
+      <xdr:rowOff>390960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12482,7 +12500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11856600" y="0"/>
-          <a:ext cx="8209440" cy="4200840"/>
+          <a:ext cx="8209080" cy="4200480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12912,18 +12930,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -12950,79 +12968,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="62" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="63" width="125"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="125"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="60"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="35" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>425</v>
+      <c r="A1" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65" t="s">
-        <v>426</v>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>429</v>
+      <c r="A3" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>431</v>
+      <c r="A4" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B5" s="65"/>
+        <v>436</v>
+      </c>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="65"/>
+      <c r="A6" s="63" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="65"/>
+      <c r="A7" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="s">
-        <v>435</v>
+      <c r="A8" s="63" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>437</v>
+      <c r="A9" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="s">
-        <v>438</v>
+      <c r="A10" s="63" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -13055,304 +13073,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="38.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="110.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
-        <v>439</v>
+      <c r="A1" s="68" t="s">
+        <v>443</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="39" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="39" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="s">
-        <v>443</v>
+      <c r="A4" s="68" t="s">
+        <v>447</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="39" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="39" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="s">
-        <v>447</v>
+      <c r="A7" s="68" t="s">
+        <v>451</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="39" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="39" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="39" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="39" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="s">
-        <v>453</v>
+      <c r="A12" s="68" t="s">
+        <v>457</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="39" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="39" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="67"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="39" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="67"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="39" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="67"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="39" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="67"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="39" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="67"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="39" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68" t="s">
-        <v>462</v>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="69" t="s">
-        <v>463</v>
+      <c r="A21" s="70" t="s">
+        <v>467</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="39" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="39" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="69"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="39" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="39" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="39" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="69"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="39" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="69"/>
-      <c r="B28" s="68" t="s">
-        <v>471</v>
+      <c r="A28" s="70"/>
+      <c r="B28" s="69" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="40" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="40"/>
       <c r="B30" s="39" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="40"/>
       <c r="B31" s="39" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="40"/>
       <c r="B32" s="39" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40"/>
       <c r="B33" s="39" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="69" t="s">
-        <v>478</v>
+      <c r="A34" s="70" t="s">
+        <v>482</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="69"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="41" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="69"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="41" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="69"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="41" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="67" t="s">
-        <v>483</v>
+      <c r="A38" s="68" t="s">
+        <v>487</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="67"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="41" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="67"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="41" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="67"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="41" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="67"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="41" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="67"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="41" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="70"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="71" t="s">
-        <v>490</v>
-      </c>
-      <c r="B45" s="71"/>
+      <c r="A45" s="72" t="s">
+        <v>494</v>
+      </c>
+      <c r="B45" s="72"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="70" t="s">
-        <v>491</v>
-      </c>
-      <c r="B47" s="72" t="s">
-        <v>492</v>
+      <c r="A47" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -13532,25 +13550,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="149.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="149.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="41" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="73"/>
+      <c r="B4" s="74"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13568,15 +13586,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="19.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="156.15"/>
@@ -13625,6 +13643,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
@@ -13634,6 +13653,7 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
@@ -13664,28 +13684,26 @@
       </c>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="19" t="s">
+    <row r="10" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11"/>
+      <c r="C10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="129.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
         <v>62</v>
       </c>
@@ -13694,42 +13712,43 @@
       </c>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8" t="s">
+    <row r="12" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="129.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="C14" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="20"/>
       <c r="C15" s="14" t="s">
         <v>72</v>
       </c>
@@ -13737,32 +13756,53 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" customFormat="false" ht="307.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
-    </row>
+      <c r="B18" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="307.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11"/>
+      <c r="B19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:A4"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C5:D5"/>
@@ -13770,14 +13810,17 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13811,10 +13854,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -13823,10 +13866,10 @@
     <row r="2" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="26"/>
       <c r="B2" s="28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -13834,10 +13877,10 @@
     <row r="3" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -13845,10 +13888,10 @@
     <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26"/>
       <c r="B4" s="27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -13857,7 +13900,7 @@
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -13872,13 +13915,13 @@
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E7" s="31"/>
     </row>
@@ -13887,7 +13930,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E8" s="31"/>
     </row>
@@ -13896,7 +13939,7 @@
       <c r="B9" s="27"/>
       <c r="C9" s="30"/>
       <c r="D9" s="31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E9" s="31"/>
     </row>
@@ -13904,13 +13947,13 @@
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13918,17 +13961,17 @@
       <c r="B11" s="27"/>
       <c r="C11" s="30"/>
       <c r="D11" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -13937,31 +13980,31 @@
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -13970,10 +14013,10 @@
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -13981,10 +14024,10 @@
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E17" s="12"/>
     </row>
@@ -13993,7 +14036,7 @@
       <c r="B18" s="27"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E18" s="12"/>
     </row>
@@ -14002,7 +14045,7 @@
       <c r="B19" s="27"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E19" s="12"/>
     </row>
@@ -14011,7 +14054,7 @@
       <c r="B20" s="27"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E20" s="12"/>
     </row>
@@ -14019,17 +14062,17 @@
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14051,72 +14094,72 @@
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26"/>
       <c r="B27" s="23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26"/>
       <c r="B28" s="23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26"/>
       <c r="B29" s="23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26"/>
       <c r="B30" s="23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26"/>
       <c r="B31" s="23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26"/>
       <c r="B32" s="23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26"/>
       <c r="B33" s="23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26"/>
       <c r="B34" s="23" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26"/>
       <c r="B35" s="23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26"/>
       <c r="B36" s="23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26"/>
       <c r="B37" s="23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14133,12 +14176,12 @@
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14211,13 +14254,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D1" s="15"/>
     </row>
@@ -14225,79 +14268,79 @@
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
       <c r="C4" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="36"/>
       <c r="B5" s="37"/>
       <c r="C5" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="36"/>
       <c r="B6" s="37"/>
       <c r="C6" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="36"/>
       <c r="B7" s="37"/>
       <c r="C7" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36"/>
       <c r="B8" s="37"/>
       <c r="C8" s="14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36"/>
       <c r="B9" s="37"/>
       <c r="C9" s="14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D9" s="15"/>
     </row>
@@ -14305,17 +14348,17 @@
       <c r="A10" s="36"/>
       <c r="B10" s="37"/>
       <c r="C10" s="14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
       <c r="C11" s="14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D11" s="15"/>
     </row>
@@ -14323,16 +14366,16 @@
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="36"/>
       <c r="B13" s="37" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D13" s="12"/>
     </row>
@@ -14340,20 +14383,20 @@
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14361,7 +14404,7 @@
       <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14369,7 +14412,7 @@
       <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14377,7 +14420,7 @@
       <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14385,7 +14428,7 @@
       <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14393,7 +14436,7 @@
       <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="15" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14401,17 +14444,17 @@
       <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="36"/>
       <c r="B22" s="37"/>
       <c r="C22" s="13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14419,7 +14462,7 @@
       <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14427,7 +14470,7 @@
       <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14435,7 +14478,7 @@
       <c r="B25" s="37"/>
       <c r="C25" s="13"/>
       <c r="D25" s="38" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14443,7 +14486,7 @@
       <c r="B26" s="37"/>
       <c r="C26" s="13"/>
       <c r="D26" s="38" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14451,7 +14494,7 @@
       <c r="B27" s="37"/>
       <c r="C27" s="13"/>
       <c r="D27" s="38" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14459,7 +14502,7 @@
       <c r="B28" s="37"/>
       <c r="C28" s="13"/>
       <c r="D28" s="38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14467,7 +14510,7 @@
       <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14475,7 +14518,7 @@
       <c r="B30" s="37"/>
       <c r="C30" s="13"/>
       <c r="D30" s="38" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14483,7 +14526,7 @@
       <c r="B31" s="37"/>
       <c r="C31" s="13"/>
       <c r="D31" s="38" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14491,7 +14534,7 @@
       <c r="B32" s="37"/>
       <c r="C32" s="13"/>
       <c r="D32" s="38" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14499,7 +14542,7 @@
       <c r="B33" s="37"/>
       <c r="C33" s="13"/>
       <c r="D33" s="15" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14507,7 +14550,7 @@
       <c r="B34" s="37"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14515,7 +14558,7 @@
       <c r="B35" s="37"/>
       <c r="C35" s="13"/>
       <c r="D35" s="38" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14523,7 +14566,7 @@
       <c r="B36" s="37"/>
       <c r="C36" s="13"/>
       <c r="D36" s="38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14531,7 +14574,7 @@
       <c r="B37" s="37"/>
       <c r="C37" s="13"/>
       <c r="D37" s="38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14539,7 +14582,7 @@
       <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14547,7 +14590,7 @@
       <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14555,14 +14598,14 @@
       <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
       <c r="C41" s="14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D41" s="15"/>
     </row>
@@ -14570,22 +14613,22 @@
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
       <c r="C42" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="36"/>
       <c r="B43" s="37" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14593,7 +14636,7 @@
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
       <c r="D44" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14601,7 +14644,7 @@
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
       <c r="D45" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14609,7 +14652,7 @@
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14617,7 +14660,7 @@
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
       <c r="D47" s="15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14625,7 +14668,7 @@
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
       <c r="D48" s="15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14633,7 +14676,7 @@
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
       <c r="D49" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14641,17 +14684,17 @@
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
       <c r="D50" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="36"/>
       <c r="B51" s="37"/>
       <c r="C51" s="40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14659,7 +14702,7 @@
       <c r="B52" s="37"/>
       <c r="C52" s="40"/>
       <c r="D52" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14667,7 +14710,7 @@
       <c r="B53" s="37"/>
       <c r="C53" s="40"/>
       <c r="D53" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14675,7 +14718,7 @@
       <c r="B54" s="37"/>
       <c r="C54" s="40"/>
       <c r="D54" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14683,14 +14726,14 @@
       <c r="B55" s="37"/>
       <c r="C55" s="40"/>
       <c r="D55" s="15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="36"/>
       <c r="B56" s="37"/>
       <c r="C56" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D56" s="15"/>
     </row>
@@ -14698,10 +14741,10 @@
       <c r="A57" s="36"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14709,7 +14752,7 @@
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
       <c r="D58" s="15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14717,7 +14760,7 @@
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
       <c r="D59" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14725,17 +14768,17 @@
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
       <c r="D60" s="15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="36"/>
       <c r="B61" s="37"/>
       <c r="C61" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14743,7 +14786,7 @@
       <c r="B62" s="37"/>
       <c r="C62" s="13"/>
       <c r="D62" s="15" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14751,7 +14794,7 @@
       <c r="B63" s="37"/>
       <c r="C63" s="13"/>
       <c r="D63" s="15" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14759,7 +14802,7 @@
       <c r="B64" s="37"/>
       <c r="C64" s="13"/>
       <c r="D64" s="15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14767,7 +14810,7 @@
       <c r="B65" s="37"/>
       <c r="C65" s="13"/>
       <c r="D65" s="15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14775,17 +14818,17 @@
       <c r="B66" s="37"/>
       <c r="C66" s="13"/>
       <c r="D66" s="15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="36"/>
       <c r="B67" s="37"/>
       <c r="C67" s="13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14793,7 +14836,7 @@
       <c r="B68" s="37"/>
       <c r="C68" s="13"/>
       <c r="D68" s="15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14801,7 +14844,7 @@
       <c r="B69" s="37"/>
       <c r="C69" s="13"/>
       <c r="D69" s="15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14809,7 +14852,7 @@
       <c r="B70" s="37"/>
       <c r="C70" s="13"/>
       <c r="D70" s="15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14817,7 +14860,7 @@
       <c r="B71" s="37"/>
       <c r="C71" s="13"/>
       <c r="D71" s="15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14825,7 +14868,7 @@
       <c r="B72" s="37"/>
       <c r="C72" s="13"/>
       <c r="D72" s="15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14833,7 +14876,7 @@
       <c r="B73" s="37"/>
       <c r="C73" s="13"/>
       <c r="D73" s="15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14841,7 +14884,7 @@
       <c r="B74" s="37"/>
       <c r="C74" s="13"/>
       <c r="D74" s="15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14849,7 +14892,7 @@
       <c r="B75" s="37"/>
       <c r="C75" s="13"/>
       <c r="D75" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14857,7 +14900,7 @@
       <c r="B76" s="37"/>
       <c r="C76" s="13"/>
       <c r="D76" s="15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14865,34 +14908,34 @@
       <c r="B77" s="37"/>
       <c r="C77" s="13"/>
       <c r="D77" s="38" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="36"/>
       <c r="B78" s="37"/>
       <c r="D78" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="36"/>
       <c r="B79" s="37"/>
       <c r="C79" s="14" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="36"/>
       <c r="B80" s="37"/>
       <c r="C80" s="40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14900,7 +14943,7 @@
       <c r="B81" s="37"/>
       <c r="C81" s="40"/>
       <c r="D81" s="39" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14908,7 +14951,7 @@
       <c r="B82" s="37"/>
       <c r="C82" s="40"/>
       <c r="D82" s="41" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14916,23 +14959,23 @@
       <c r="B83" s="37"/>
       <c r="C83" s="40"/>
       <c r="D83" s="41" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="36"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="36"/>
       <c r="B85" s="37" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="41"/>
@@ -14940,7 +14983,7 @@
     <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="36"/>
       <c r="B86" s="37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C86" s="37"/>
       <c r="D86" s="41"/>
@@ -14948,7 +14991,7 @@
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="36"/>
       <c r="B87" s="37" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="41"/>
@@ -14956,7 +14999,7 @@
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="36"/>
       <c r="B88" s="37" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="41"/>
@@ -14964,7 +15007,7 @@
     <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="36"/>
       <c r="B89" s="37" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="41"/>
@@ -14972,7 +15015,7 @@
     <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="36"/>
       <c r="B90" s="37" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="41"/>
@@ -14980,7 +15023,7 @@
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="36"/>
       <c r="B91" s="37" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="41"/>
@@ -14988,7 +15031,7 @@
     <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="36"/>
       <c r="B92" s="37" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="41"/>
@@ -14996,7 +15039,7 @@
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="36"/>
       <c r="B93" s="42" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="41"/>
@@ -15004,7 +15047,7 @@
     <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="36"/>
       <c r="B94" s="37" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="41"/>
@@ -15012,7 +15055,7 @@
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="36"/>
       <c r="B95" s="42" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="41"/>
@@ -15020,7 +15063,7 @@
     <row r="96" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="36"/>
       <c r="B96" s="42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="41"/>
@@ -15028,7 +15071,7 @@
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="36"/>
       <c r="B97" s="42" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="41"/>
@@ -15036,7 +15079,7 @@
     <row r="98" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="36"/>
       <c r="B98" s="42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="41"/>
@@ -15044,7 +15087,7 @@
     <row r="99" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="36"/>
       <c r="B99" s="42" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="41"/>
@@ -15052,7 +15095,7 @@
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="36"/>
       <c r="B100" s="37" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="41"/>
@@ -15060,7 +15103,7 @@
     <row r="101" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="36"/>
       <c r="B101" s="37" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="41"/>
@@ -15068,7 +15111,7 @@
     <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="36"/>
       <c r="B102" s="42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="41"/>
@@ -15076,7 +15119,7 @@
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="36"/>
       <c r="B103" s="37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="41"/>
@@ -15084,7 +15127,7 @@
     <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="36"/>
       <c r="B104" s="37" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="41"/>
@@ -15092,33 +15135,33 @@
     <row r="105" customFormat="false" ht="162.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="36"/>
       <c r="B105" s="43" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="36"/>
       <c r="B106" s="43"/>
       <c r="C106" s="14" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="323.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="36"/>
       <c r="B107" s="43"/>
       <c r="C107" s="13" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D107" s="41" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15126,27 +15169,27 @@
       <c r="B108" s="43"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="36"/>
       <c r="B109" s="43"/>
       <c r="C109" s="14" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D109" s="41" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="256.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="36"/>
       <c r="B110" s="43"/>
       <c r="C110" s="13" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15154,47 +15197,47 @@
       <c r="B111" s="43"/>
       <c r="C111" s="13"/>
       <c r="D111" s="41" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="36"/>
       <c r="B112" s="43"/>
       <c r="C112" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="36"/>
       <c r="B113" s="44"/>
       <c r="C113" s="14" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="36"/>
       <c r="B114" s="44"/>
       <c r="C114" s="14" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="36"/>
       <c r="B115" s="44"/>
       <c r="C115" s="13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15202,26 +15245,26 @@
       <c r="B116" s="44"/>
       <c r="C116" s="13"/>
       <c r="D116" s="15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="36"/>
       <c r="B117" s="44"/>
       <c r="C117" s="14" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="274.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="36"/>
       <c r="B118" s="13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D118" s="29"/>
     </row>
@@ -15229,17 +15272,17 @@
       <c r="A119" s="36"/>
       <c r="B119" s="13"/>
       <c r="C119" s="29" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D119" s="29"/>
     </row>
     <row r="120" customFormat="false" ht="391.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="36"/>
       <c r="B120" s="13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -15247,91 +15290,91 @@
       <c r="A121" s="36"/>
       <c r="B121" s="13"/>
       <c r="C121" s="29" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D121" s="29"/>
     </row>
     <row r="122" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="45" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="45"/>
       <c r="B123" s="13" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="45"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="45"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="45"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="45"/>
       <c r="B127" s="13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="45"/>
       <c r="B128" s="13"/>
       <c r="C128" s="14" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="45"/>
       <c r="B129" s="13"/>
       <c r="C129" s="15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D129" s="15"/>
     </row>
@@ -15339,7 +15382,7 @@
       <c r="A130" s="45"/>
       <c r="B130" s="13"/>
       <c r="C130" s="15" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D130" s="15"/>
     </row>
@@ -15347,7 +15390,7 @@
       <c r="A131" s="45"/>
       <c r="B131" s="13"/>
       <c r="C131" s="15" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D131" s="15"/>
     </row>
@@ -15355,17 +15398,17 @@
       <c r="A132" s="45"/>
       <c r="B132" s="13"/>
       <c r="C132" s="15" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D132" s="15"/>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="45"/>
       <c r="B133" s="13" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D133" s="15"/>
     </row>
@@ -15373,7 +15416,7 @@
       <c r="A134" s="45"/>
       <c r="B134" s="13"/>
       <c r="C134" s="15" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D134" s="15"/>
     </row>
@@ -15381,14 +15424,14 @@
       <c r="A135" s="45"/>
       <c r="B135" s="13"/>
       <c r="C135" s="15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D135" s="15"/>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="45"/>
       <c r="B136" s="14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
@@ -15488,7 +15531,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15586,22 +15629,22 @@
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="49"/>
       <c r="B27" s="47" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="49"/>
       <c r="B28" s="47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15609,77 +15652,77 @@
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="49" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="49"/>
       <c r="B31" s="55"/>
       <c r="C31" s="48" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="49"/>
       <c r="B32" s="55"/>
       <c r="C32" s="48" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="49"/>
       <c r="B33" s="55"/>
       <c r="C33" s="48" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="49" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="49"/>
       <c r="B36" s="47" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="49"/>
       <c r="B37" s="47" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="49"/>
       <c r="B38" s="47" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="54" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -15715,17 +15758,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="151.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="151.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="41" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="349.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D2" s="41" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -15752,12 +15795,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="140"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="140"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="41" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -15789,67 +15832,67 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>334</v>
+      <c r="A1" s="58" t="s">
+        <v>338</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>336</v>
+        <v>339</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="200.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15857,240 +15900,240 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="59"/>
+      <c r="B23" s="60"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="60" t="s">
-        <v>385</v>
+      <c r="A54" s="61" t="s">
+        <v>389</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="60"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="60"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13"/>
-      <c r="B59" s="61" t="s">
-        <v>391</v>
+      <c r="B59" s="62" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13"/>
-      <c r="B60" s="61" t="s">
-        <v>392</v>
+      <c r="B60" s="62" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13"/>
-      <c r="B61" s="61" t="s">
-        <v>393</v>
+      <c r="B61" s="62" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
-      <c r="B62" s="61" t="s">
-        <v>394</v>
+      <c r="B62" s="62" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="61" t="s">
-        <v>395</v>
+      <c r="B63" s="62" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
-      <c r="B64" s="61" t="s">
-        <v>396</v>
+      <c r="B64" s="62" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -16130,100 +16173,100 @@
   <sheetData>
     <row r="1" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="15" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37"/>
       <c r="B12" s="15" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37"/>
       <c r="B13" s="15" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/System-Design-Architecture/Documents.xlsx
+++ b/System-Design-Architecture/Documents.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="502">
   <si>
     <t xml:space="preserve">Kiến Trúc về Microservice</t>
   </si>
@@ -1588,6 +1588,67 @@
       </rPr>
       <t xml:space="preserve"> is a quick and easy way to figure out the classes in your system.
  - The verbs in your use cases are (usually) the methods of the objects in your system.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapter 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - The perfect world: everyone uses our software just like we expect them to.
+ - The real world: Things go wrong a lot more often.
+ - But our software has to work in the real world, not just in a perfect world. That means we have to think about our software in a different context.
+ -  The key to making sure things work and that the real world doesn’t screw up your application is analysis: figuring out potential problems, and then solving those problems – before you release your app out into the real world.
+ →  </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> helps you ensure your system works in a </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">real-world context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
     </r>
   </si>
   <si>
@@ -11754,7 +11815,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11841,6 +11902,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -12141,9 +12206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>589680</xdr:colOff>
+      <xdr:colOff>589320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2122560</xdr:rowOff>
+      <xdr:rowOff>2122200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12157,7 +12222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10237320" y="8324640"/>
-          <a:ext cx="4802400" cy="2799720"/>
+          <a:ext cx="4802040" cy="2799360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12178,9 +12243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
+      <xdr:colOff>665640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1798560</xdr:rowOff>
+      <xdr:rowOff>1798200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12194,7 +12259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10323000" y="11420280"/>
-          <a:ext cx="4793040" cy="2494800"/>
+          <a:ext cx="4792680" cy="2494440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12215,9 +12280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
+      <xdr:colOff>522720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>697320</xdr:rowOff>
+      <xdr:rowOff>696960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12231,7 +12296,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10170720" y="24355440"/>
-          <a:ext cx="4802400" cy="2904480"/>
+          <a:ext cx="4802040" cy="2904120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12257,9 +12322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293760</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>281160</xdr:rowOff>
+      <xdr:rowOff>280800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12273,7 +12338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2793240" cy="1209960"/>
+          <a:ext cx="2792880" cy="1209600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12294,9 +12359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12310,7 +12375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2575440" cy="1285560"/>
+          <a:ext cx="2575080" cy="1285200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12331,9 +12396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>210600</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>337320</xdr:rowOff>
+      <xdr:rowOff>336960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12347,7 +12412,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4565520" cy="1332720"/>
+          <a:ext cx="4565160" cy="1332360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12368,9 +12433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>294120</xdr:colOff>
+      <xdr:colOff>293760</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>281160</xdr:rowOff>
+      <xdr:rowOff>280800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12384,7 +12449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2793240" cy="1209960"/>
+          <a:ext cx="2792880" cy="1209600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12405,9 +12470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12421,7 +12486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2575440" cy="1285560"/>
+          <a:ext cx="2575080" cy="1285200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12442,9 +12507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>210600</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>337320</xdr:rowOff>
+      <xdr:rowOff>336960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12458,7 +12523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4565520" cy="1332720"/>
+          <a:ext cx="4565160" cy="1332360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12484,9 +12549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>390960</xdr:rowOff>
+      <xdr:rowOff>390600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12500,7 +12565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11856600" y="0"/>
-          <a:ext cx="8209080" cy="4200480"/>
+          <a:ext cx="8208720" cy="4200120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12930,18 +12995,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -12968,79 +13033,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="125"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="60"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="35" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="65" width="125"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="60"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="36" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>429</v>
+      <c r="A1" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66" t="s">
-        <v>430</v>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>431</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="C3" s="67" t="s">
+      <c r="A3" s="64" t="s">
         <v>433</v>
       </c>
+      <c r="B3" s="67" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>435</v>
+      <c r="A4" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="66"/>
+        <v>438</v>
+      </c>
+      <c r="B5" s="67"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="66"/>
+      <c r="A6" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="66"/>
+      <c r="A7" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="67"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>439</v>
+      <c r="A8" s="64" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
-        <v>440</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>441</v>
+      <c r="A9" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
-        <v>442</v>
+      <c r="A10" s="64" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -13073,304 +13138,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="110.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="58" width="38.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="110.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>444</v>
+      <c r="A1" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68"/>
-      <c r="B2" s="39" t="s">
-        <v>445</v>
+      <c r="A2" s="69"/>
+      <c r="B2" s="40" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68"/>
-      <c r="B3" s="39" t="s">
-        <v>446</v>
+      <c r="A3" s="69"/>
+      <c r="B3" s="40" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="s">
-        <v>447</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>448</v>
+      <c r="A4" s="69" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68"/>
-      <c r="B5" s="39" t="s">
-        <v>449</v>
+      <c r="A5" s="69"/>
+      <c r="B5" s="40" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="39" t="s">
-        <v>450</v>
+      <c r="A6" s="69"/>
+      <c r="B6" s="40" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>452</v>
+      <c r="A7" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="39" t="s">
-        <v>453</v>
+      <c r="A8" s="69"/>
+      <c r="B8" s="40" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="39" t="s">
-        <v>454</v>
+      <c r="A9" s="69"/>
+      <c r="B9" s="40" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="39" t="s">
-        <v>455</v>
+      <c r="A10" s="69"/>
+      <c r="B10" s="40" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68"/>
-      <c r="B11" s="39" t="s">
-        <v>456</v>
+      <c r="A11" s="69"/>
+      <c r="B11" s="40" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68" t="s">
-        <v>457</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>458</v>
+      <c r="A12" s="69" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68"/>
-      <c r="B13" s="39" t="s">
-        <v>459</v>
+      <c r="A13" s="69"/>
+      <c r="B13" s="40" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="39" t="s">
-        <v>460</v>
+      <c r="A14" s="69"/>
+      <c r="B14" s="40" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68"/>
-      <c r="B15" s="39" t="s">
-        <v>461</v>
+      <c r="A15" s="69"/>
+      <c r="B15" s="40" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68"/>
-      <c r="B16" s="39" t="s">
-        <v>462</v>
+      <c r="A16" s="69"/>
+      <c r="B16" s="40" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68"/>
-      <c r="B17" s="39" t="s">
-        <v>463</v>
+      <c r="A17" s="69"/>
+      <c r="B17" s="40" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68"/>
-      <c r="B18" s="39" t="s">
-        <v>464</v>
+      <c r="A18" s="69"/>
+      <c r="B18" s="40" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68"/>
-      <c r="B19" s="39" t="s">
-        <v>465</v>
+      <c r="A19" s="69"/>
+      <c r="B19" s="40" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69" t="s">
-        <v>466</v>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="s">
-        <v>467</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>468</v>
+      <c r="A21" s="71" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="70"/>
-      <c r="B22" s="39" t="s">
-        <v>469</v>
+      <c r="A22" s="71"/>
+      <c r="B22" s="40" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="70"/>
-      <c r="B23" s="39" t="s">
-        <v>470</v>
+      <c r="A23" s="71"/>
+      <c r="B23" s="40" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="70"/>
-      <c r="B24" s="39" t="s">
-        <v>471</v>
+      <c r="A24" s="71"/>
+      <c r="B24" s="40" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="70"/>
-      <c r="B25" s="39" t="s">
-        <v>472</v>
+      <c r="A25" s="71"/>
+      <c r="B25" s="40" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="70"/>
-      <c r="B26" s="39" t="s">
-        <v>473</v>
+      <c r="A26" s="71"/>
+      <c r="B26" s="40" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="70"/>
-      <c r="B27" s="39" t="s">
-        <v>474</v>
+      <c r="A27" s="71"/>
+      <c r="B27" s="40" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="70"/>
-      <c r="B28" s="69" t="s">
-        <v>475</v>
+      <c r="A28" s="71"/>
+      <c r="B28" s="70" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>477</v>
+      <c r="A29" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
-      <c r="B30" s="39" t="s">
-        <v>478</v>
+      <c r="A30" s="41"/>
+      <c r="B30" s="40" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
-      <c r="B31" s="39" t="s">
-        <v>479</v>
+      <c r="A31" s="41"/>
+      <c r="B31" s="40" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
-      <c r="B32" s="39" t="s">
-        <v>480</v>
+      <c r="A32" s="41"/>
+      <c r="B32" s="40" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40"/>
-      <c r="B33" s="39" t="s">
-        <v>481</v>
+      <c r="A33" s="41"/>
+      <c r="B33" s="40" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="70" t="s">
-        <v>482</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>483</v>
+      <c r="A34" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="70"/>
-      <c r="B35" s="41" t="s">
-        <v>484</v>
+      <c r="A35" s="71"/>
+      <c r="B35" s="42" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="70"/>
-      <c r="B36" s="41" t="s">
-        <v>485</v>
+      <c r="A36" s="71"/>
+      <c r="B36" s="42" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="70"/>
-      <c r="B37" s="41" t="s">
-        <v>486</v>
+      <c r="A37" s="71"/>
+      <c r="B37" s="42" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="68" t="s">
-        <v>487</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>488</v>
+      <c r="A38" s="69" t="s">
+        <v>489</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="68"/>
-      <c r="B39" s="41" t="s">
-        <v>489</v>
+      <c r="A39" s="69"/>
+      <c r="B39" s="42" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="68"/>
-      <c r="B40" s="41" t="s">
-        <v>490</v>
+      <c r="A40" s="69"/>
+      <c r="B40" s="42" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="68"/>
-      <c r="B41" s="41" t="s">
-        <v>491</v>
+      <c r="A41" s="69"/>
+      <c r="B41" s="42" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="68"/>
-      <c r="B42" s="41" t="s">
-        <v>492</v>
+      <c r="A42" s="69"/>
+      <c r="B42" s="42" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="68"/>
-      <c r="B43" s="41" t="s">
-        <v>493</v>
+      <c r="A43" s="69"/>
+      <c r="B43" s="42" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="71"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="72" t="s">
-        <v>494</v>
-      </c>
-      <c r="B45" s="72"/>
+      <c r="A45" s="73" t="s">
+        <v>496</v>
+      </c>
+      <c r="B45" s="73"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="71" t="s">
-        <v>495</v>
-      </c>
-      <c r="B47" s="73" t="s">
-        <v>496</v>
+      <c r="A47" s="72" t="s">
+        <v>497</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -13550,25 +13615,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="149.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="149.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
-        <v>497</v>
+      <c r="B1" s="42" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>498</v>
+      <c r="A3" s="42" t="s">
+        <v>500</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="74"/>
+      <c r="B4" s="75"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13588,8 +13653,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13799,9 +13864,21 @@
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
     </row>
+    <row r="21" customFormat="false" ht="78.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="22"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:B4"/>
@@ -13821,6 +13898,7 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13845,350 +13923,350 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="30.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="29.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="27.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="11.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="116.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="29.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="27.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="116.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28" t="s">
-        <v>84</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27" t="s">
-        <v>87</v>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>89</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="C7" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="31"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>96</v>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
-        <v>105</v>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
-        <v>115</v>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="23" t="s">
-        <v>116</v>
+      <c r="A27" s="27"/>
+      <c r="B27" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26"/>
-      <c r="B28" s="23" t="s">
-        <v>117</v>
+      <c r="A28" s="27"/>
+      <c r="B28" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26"/>
-      <c r="B29" s="23" t="s">
-        <v>118</v>
+      <c r="A29" s="27"/>
+      <c r="B29" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26"/>
-      <c r="B30" s="23" t="s">
-        <v>119</v>
+      <c r="A30" s="27"/>
+      <c r="B30" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26"/>
-      <c r="B31" s="23" t="s">
-        <v>120</v>
+      <c r="A31" s="27"/>
+      <c r="B31" s="24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23" t="s">
-        <v>121</v>
+      <c r="A32" s="27"/>
+      <c r="B32" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23" t="s">
-        <v>122</v>
+      <c r="A33" s="27"/>
+      <c r="B33" s="24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26"/>
-      <c r="B34" s="23" t="s">
-        <v>123</v>
+      <c r="A34" s="27"/>
+      <c r="B34" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26"/>
-      <c r="B35" s="23" t="s">
-        <v>124</v>
+      <c r="A35" s="27"/>
+      <c r="B35" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26"/>
-      <c r="B36" s="23" t="s">
-        <v>125</v>
+      <c r="A36" s="27"/>
+      <c r="B36" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="B37" s="23" t="s">
-        <v>126</v>
+      <c r="A37" s="27"/>
+      <c r="B37" s="24" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
-        <v>127</v>
+      <c r="A38" s="27" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
+      <c r="A39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
+      <c r="A40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
+      <c r="A41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26"/>
+      <c r="A42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
-        <v>128</v>
+      <c r="A43" s="23" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="33" t="s">
-        <v>129</v>
+      <c r="A44" s="34" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="33"/>
+      <c r="A46" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -14245,1193 +14323,1193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="20.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="167.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="35" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="167.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="36" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>131</v>
+      <c r="A1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
-        <v>135</v>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>137</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
-        <v>153</v>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="13"/>
       <c r="D16" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="13"/>
       <c r="D19" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="13"/>
       <c r="D20" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="13"/>
       <c r="D23" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="13"/>
       <c r="D24" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="38" t="s">
-        <v>169</v>
+      <c r="D25" s="39" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="38" t="s">
-        <v>170</v>
+      <c r="D26" s="39" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="38" t="s">
-        <v>171</v>
+      <c r="D27" s="39" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="38" t="s">
-        <v>172</v>
+      <c r="D28" s="39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="13"/>
       <c r="D29" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="38" t="s">
-        <v>174</v>
+      <c r="D30" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="38" t="s">
-        <v>175</v>
+      <c r="D31" s="39" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="38" t="s">
-        <v>176</v>
+      <c r="D32" s="39" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="13"/>
       <c r="D33" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="39" t="s">
-        <v>178</v>
+      <c r="D34" s="40" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="38" t="s">
-        <v>179</v>
+      <c r="D35" s="39" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="38" t="s">
-        <v>180</v>
+      <c r="D36" s="39" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="38" t="s">
-        <v>181</v>
+      <c r="D37" s="39" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="13"/>
       <c r="D38" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="13"/>
       <c r="D40" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>189</v>
+      <c r="A43" s="37"/>
+      <c r="B43" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="40" t="s">
-        <v>198</v>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="40"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="498.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>206</v>
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="13"/>
       <c r="D62" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="13"/>
       <c r="D63" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="13"/>
       <c r="D64" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="13"/>
       <c r="D65" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="13"/>
       <c r="D66" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="13"/>
       <c r="D68" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="13"/>
       <c r="D69" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="36"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="13"/>
       <c r="D70" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="36"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="13"/>
       <c r="D71" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="13"/>
       <c r="D72" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="36"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="13"/>
       <c r="D73" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="36"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="13"/>
       <c r="D74" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="13"/>
       <c r="D75" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="36"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="13"/>
       <c r="D76" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="36"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="38" t="s">
-        <v>227</v>
+      <c r="D77" s="39" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="36"/>
-      <c r="B78" s="37"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="38"/>
       <c r="D78" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="36"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="36"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="40" t="s">
-        <v>231</v>
+      <c r="A80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="41" t="s">
+        <v>233</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="36"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="39" t="s">
-        <v>233</v>
+      <c r="A81" s="37"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="40" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="36"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="41" t="s">
-        <v>234</v>
+      <c r="A82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="36"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="41" t="s">
-        <v>235</v>
+      <c r="A83" s="37"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>237</v>
+      <c r="A84" s="37"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="36"/>
-      <c r="B85" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="41"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="42"/>
     </row>
     <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="41"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="38"/>
+      <c r="D86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="41"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="38"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="41"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="38"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="36"/>
-      <c r="B89" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="41"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="38"/>
+      <c r="D89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="36"/>
-      <c r="B90" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C90" s="37"/>
-      <c r="D90" s="41"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="42"/>
     </row>
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="36"/>
-      <c r="B91" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="41"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="36"/>
-      <c r="B92" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" s="37"/>
-      <c r="D92" s="41"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="42"/>
     </row>
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="36"/>
-      <c r="B93" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="C93" s="37"/>
-      <c r="D93" s="41"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="42"/>
     </row>
     <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C94" s="37"/>
-      <c r="D94" s="41"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="38"/>
+      <c r="D94" s="42"/>
     </row>
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="36"/>
-      <c r="B95" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C95" s="37"/>
-      <c r="D95" s="41"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="42"/>
     </row>
     <row r="96" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="36"/>
-      <c r="B96" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="41"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" s="38"/>
+      <c r="D96" s="42"/>
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="36"/>
-      <c r="B97" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="C97" s="37"/>
-      <c r="D97" s="41"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="38"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="36"/>
-      <c r="B98" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="41"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="36"/>
-      <c r="B99" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="41"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="C100" s="37"/>
-      <c r="D100" s="41"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="101" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="36"/>
-      <c r="B101" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="41"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="42"/>
     </row>
     <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="36"/>
-      <c r="B102" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="41"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="42"/>
     </row>
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="36"/>
-      <c r="B103" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="41"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="42"/>
     </row>
     <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="36"/>
-      <c r="B104" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C104" s="37"/>
-      <c r="D104" s="41"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="42"/>
     </row>
     <row r="105" customFormat="false" ht="162.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="36"/>
-      <c r="B105" s="43" t="s">
-        <v>258</v>
+      <c r="A105" s="37"/>
+      <c r="B105" s="44" t="s">
+        <v>260</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="36"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="323.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="36"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D107" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="36"/>
-      <c r="B108" s="43"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="13"/>
-      <c r="D108" s="39" t="s">
-        <v>265</v>
+      <c r="D108" s="40" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="36"/>
-      <c r="B109" s="43"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D109" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="256.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="36"/>
-      <c r="B110" s="43"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="D110" s="39" t="s">
-        <v>269</v>
+        <v>270</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="36"/>
-      <c r="B111" s="43"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="41" t="s">
-        <v>270</v>
+      <c r="D111" s="42" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="36"/>
-      <c r="B112" s="43"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D112" s="41" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="36"/>
-      <c r="B113" s="44"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="45"/>
       <c r="C113" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="36"/>
-      <c r="B114" s="44"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="45"/>
       <c r="C114" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
+      </c>
+      <c r="D114" s="39" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="36"/>
-      <c r="B115" s="44"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="45"/>
       <c r="C115" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="36"/>
-      <c r="B116" s="44"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="13"/>
       <c r="D116" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="36"/>
-      <c r="B117" s="44"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="274.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="36"/>
+      <c r="A118" s="37"/>
       <c r="B118" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C118" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="D118" s="29"/>
+        <v>284</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" s="30"/>
     </row>
     <row r="119" customFormat="false" ht="243.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="36"/>
+      <c r="A119" s="37"/>
       <c r="B119" s="13"/>
-      <c r="C119" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="D119" s="29"/>
+      <c r="C119" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" s="30"/>
     </row>
     <row r="120" customFormat="false" ht="391.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="36"/>
+      <c r="A120" s="37"/>
       <c r="B120" s="13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="231" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="36"/>
+      <c r="A121" s="37"/>
       <c r="B121" s="13"/>
-      <c r="C121" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="D121" s="29"/>
+      <c r="C121" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D121" s="30"/>
     </row>
     <row r="122" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="45" t="s">
-        <v>288</v>
+      <c r="A122" s="46" t="s">
+        <v>290</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="45"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="45"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="45"/>
+      <c r="A125" s="46"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="45"/>
+      <c r="A126" s="46"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="45"/>
+      <c r="A127" s="46"/>
       <c r="B127" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="45"/>
+      <c r="A128" s="46"/>
       <c r="B128" s="13"/>
       <c r="C128" s="14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="45"/>
+      <c r="A129" s="46"/>
       <c r="B129" s="13"/>
       <c r="C129" s="15" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D129" s="15"/>
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="45"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="13"/>
       <c r="C130" s="15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D130" s="15"/>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="45"/>
+      <c r="A131" s="46"/>
       <c r="B131" s="13"/>
       <c r="C131" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D131" s="15"/>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="45"/>
+      <c r="A132" s="46"/>
       <c r="B132" s="13"/>
       <c r="C132" s="15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D132" s="15"/>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="45"/>
+      <c r="A133" s="46"/>
       <c r="B133" s="13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D133" s="15"/>
     </row>
     <row r="134" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="45"/>
+      <c r="A134" s="46"/>
       <c r="B134" s="13"/>
       <c r="C134" s="15" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D134" s="15"/>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="45"/>
+      <c r="A135" s="46"/>
       <c r="B135" s="13"/>
       <c r="C135" s="15" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D135" s="15"/>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="45"/>
+      <c r="A136" s="46"/>
       <c r="B136" s="14" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
@@ -15524,205 +15602,205 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="55.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="54.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="101.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="55.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="54.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="49" width="101.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
-        <v>314</v>
+      <c r="A1" s="50" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>316</v>
+      <c r="A26" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="49"/>
-      <c r="B27" s="47" t="s">
-        <v>317</v>
+      <c r="A27" s="50"/>
+      <c r="B27" s="48" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="49"/>
-      <c r="B28" s="47" t="s">
-        <v>318</v>
+      <c r="A28" s="50"/>
+      <c r="B28" s="48" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="C30" s="48" t="s">
+      <c r="A30" s="50" t="s">
         <v>321</v>
       </c>
+      <c r="B30" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="49"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="48" t="s">
-        <v>322</v>
+      <c r="A31" s="50"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="49" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="48" t="s">
-        <v>323</v>
+      <c r="A32" s="50"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="49" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="48" t="s">
-        <v>324</v>
+      <c r="A33" s="50"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="49" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="C35" s="56" t="s">
+      <c r="A35" s="50" t="s">
         <v>327</v>
       </c>
+      <c r="B35" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49"/>
-      <c r="B36" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>329</v>
+      <c r="A36" s="50"/>
+      <c r="B36" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49"/>
-      <c r="B37" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>331</v>
+      <c r="A37" s="50"/>
+      <c r="B37" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49"/>
-      <c r="B38" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>333</v>
+      <c r="A38" s="50"/>
+      <c r="B38" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="54" t="s">
-        <v>334</v>
+      <c r="A40" s="55" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -15758,17 +15836,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="151.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="151.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="41" t="s">
-        <v>335</v>
+      <c r="D1" s="42" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="349.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="41" t="s">
-        <v>336</v>
+      <c r="D2" s="42" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -15795,12 +15873,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="140"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="140"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="41" t="s">
-        <v>337</v>
+      <c r="C1" s="42" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -15832,67 +15910,67 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
-        <v>338</v>
+      <c r="A1" s="59" t="s">
+        <v>340</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="200.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15900,240 +15978,240 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="60"/>
+      <c r="B23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="61" t="s">
-        <v>389</v>
+      <c r="A54" s="62" t="s">
+        <v>391</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13"/>
-      <c r="B59" s="62" t="s">
-        <v>395</v>
+      <c r="B59" s="63" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13"/>
-      <c r="B60" s="62" t="s">
-        <v>396</v>
+      <c r="B60" s="63" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13"/>
-      <c r="B61" s="62" t="s">
-        <v>397</v>
+      <c r="B61" s="63" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
-      <c r="B62" s="62" t="s">
-        <v>398</v>
+      <c r="B62" s="63" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="62" t="s">
-        <v>399</v>
+      <c r="B63" s="63" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
-      <c r="B64" s="62" t="s">
-        <v>400</v>
+      <c r="B64" s="63" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -16173,100 +16251,100 @@
   <sheetData>
     <row r="1" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="15" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>420</v>
+      <c r="A11" s="38" t="s">
+        <v>422</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="15" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="15" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/System-Design-Architecture/Documents.xlsx
+++ b/System-Design-Architecture/Documents.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="506">
   <si>
     <t xml:space="preserve">Kiến Trúc về Microservice</t>
   </si>
@@ -1648,7 +1648,251 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">.
+ - Write your use cases in a way that </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">makes sense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(có ý nghĩa) to </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, your </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">boss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, and your </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">customers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.
+ - Analysis and your use cases let you show customers, managers, and other developers how your system works in a </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">real world context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Loosely coupled</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Delegation helps our applications stay loosely coupled.
+ - Objects are independent of each other, changes to one object don’t require you to make a bunch of changes to other objects.
+ - Delegation </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">shields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(bảo vệ) your objects from implementation changes to other objects in your software.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Case</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Use cases are certainly a good strart towards writing good software, satisfy the customer more often, code work correctly with less rework.
+ - A good use case </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">clearly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">accurately</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">(chính xác) explains what a system does, in language that’s easily understood.
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">- Looking at the nouns (and verbs) in your use case to figure out classes and methods is called </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">textual analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.
+ - Textual analysis tells you what to focus on, not just what classes you should create.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - With a good use case complete, textual analysis is a quick and easy way to figure out the classes in your system.</t>
     </r>
   </si>
   <si>
@@ -11502,7 +11746,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11593,6 +11837,19 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -11808,10 +12065,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -11908,15 +12165,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11924,15 +12181,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11940,7 +12197,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11952,11 +12209,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11964,7 +12221,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11988,11 +12245,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12000,23 +12257,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12024,27 +12301,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12056,15 +12313,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12076,7 +12333,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12084,7 +12341,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12108,7 +12365,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12206,9 +12463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>588960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2122200</xdr:rowOff>
+      <xdr:rowOff>2121840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12222,7 +12479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10237320" y="8324640"/>
-          <a:ext cx="4802040" cy="2799360"/>
+          <a:ext cx="4801680" cy="2799000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12243,9 +12500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>665640</xdr:colOff>
+      <xdr:colOff>665280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1798200</xdr:rowOff>
+      <xdr:rowOff>1797840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12259,7 +12516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10323000" y="11420280"/>
-          <a:ext cx="4792680" cy="2494440"/>
+          <a:ext cx="4792320" cy="2494080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12280,9 +12537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>522720</xdr:colOff>
+      <xdr:colOff>522360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>696960</xdr:rowOff>
+      <xdr:rowOff>696600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12296,7 +12553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10170720" y="24355440"/>
-          <a:ext cx="4802040" cy="2904120"/>
+          <a:ext cx="4801680" cy="2903760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12322,9 +12579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>280800</xdr:rowOff>
+      <xdr:rowOff>280440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12338,7 +12595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2792880" cy="1209600"/>
+          <a:ext cx="2792520" cy="1209240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12359,9 +12616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12375,7 +12632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2575080" cy="1285200"/>
+          <a:ext cx="2574720" cy="1284840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12396,9 +12653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>210240</xdr:colOff>
+      <xdr:colOff>209880</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>336960</xdr:rowOff>
+      <xdr:rowOff>336600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12412,7 +12669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4565160" cy="1332360"/>
+          <a:ext cx="4564800" cy="1332000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12433,9 +12690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293760</xdr:colOff>
+      <xdr:colOff>293400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>280800</xdr:rowOff>
+      <xdr:rowOff>280440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12449,7 +12706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2792880" cy="1209600"/>
+          <a:ext cx="2792520" cy="1209240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12470,9 +12727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12486,7 +12743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2575080" cy="1285200"/>
+          <a:ext cx="2574720" cy="1284840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12507,9 +12764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>210240</xdr:colOff>
+      <xdr:colOff>209880</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>336960</xdr:rowOff>
+      <xdr:rowOff>336600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12523,7 +12780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4565160" cy="1332360"/>
+          <a:ext cx="4564800" cy="1332000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12549,9 +12806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>390600</xdr:rowOff>
+      <xdr:rowOff>390240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12565,7 +12822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11856600" y="0"/>
-          <a:ext cx="8208720" cy="4200120"/>
+          <a:ext cx="8208360" cy="4199760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12995,18 +13252,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -13041,71 +13298,71 @@
   <sheetData>
     <row r="1" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="66" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="66"/>
       <c r="B2" s="67" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="64" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B5" s="67"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="64" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B6" s="67"/>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="64" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B7" s="67"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="64" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="64" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="64" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -13144,276 +13401,276 @@
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="69" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="69"/>
       <c r="B2" s="40" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="69"/>
       <c r="B3" s="40" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="69" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="69"/>
       <c r="B5" s="40" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="69"/>
       <c r="B6" s="40" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="69" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="69"/>
       <c r="B8" s="40" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="69"/>
       <c r="B9" s="40" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="69"/>
       <c r="B10" s="40" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="69"/>
       <c r="B11" s="40" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="69" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="69"/>
       <c r="B13" s="40" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="69"/>
       <c r="B14" s="40" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="69"/>
       <c r="B15" s="40" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="69"/>
       <c r="B16" s="40" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="69"/>
       <c r="B17" s="40" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="69"/>
       <c r="B18" s="40" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="69"/>
       <c r="B19" s="40" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="69"/>
       <c r="B20" s="70" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="71" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="71"/>
       <c r="B22" s="40" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="71"/>
       <c r="B23" s="40" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="71"/>
       <c r="B24" s="40" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="71"/>
       <c r="B25" s="40" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="71"/>
       <c r="B26" s="40" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="71"/>
       <c r="B27" s="40" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="71"/>
       <c r="B28" s="70" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="41" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="41"/>
       <c r="B30" s="40" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41"/>
       <c r="B31" s="40" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="41"/>
       <c r="B32" s="40" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="41"/>
       <c r="B33" s="40" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="71" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="71"/>
       <c r="B35" s="42" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="71"/>
       <c r="B36" s="42" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="71"/>
       <c r="B37" s="42" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="69" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="69"/>
       <c r="B39" s="42" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="69"/>
       <c r="B40" s="42" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="69"/>
       <c r="B41" s="42" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="69"/>
       <c r="B42" s="42" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="69"/>
       <c r="B43" s="42" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13422,7 +13679,7 @@
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="73" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B45" s="73"/>
     </row>
@@ -13432,10 +13689,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="72" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B47" s="74" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -13620,16 +13877,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="42" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13653,8 +13910,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13864,21 +14121,39 @@
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="78.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="113.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="41.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="69.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="22"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:B4"/>
@@ -13898,7 +14173,10 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13932,10 +14210,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -13944,10 +14222,10 @@
     <row r="2" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="27"/>
       <c r="B2" s="29" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -13958,7 +14236,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -13966,10 +14244,10 @@
     <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="27"/>
       <c r="B4" s="28" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -13978,7 +14256,7 @@
       <c r="A5" s="27"/>
       <c r="B5" s="28"/>
       <c r="C5" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -13993,13 +14271,13 @@
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="27"/>
       <c r="B7" s="28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E7" s="32"/>
     </row>
@@ -14008,7 +14286,7 @@
       <c r="B8" s="28"/>
       <c r="C8" s="31"/>
       <c r="D8" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E8" s="32"/>
     </row>
@@ -14017,7 +14295,7 @@
       <c r="B9" s="28"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E9" s="32"/>
     </row>
@@ -14025,13 +14303,13 @@
       <c r="A10" s="27"/>
       <c r="B10" s="28"/>
       <c r="C10" s="31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14039,17 +14317,17 @@
       <c r="B11" s="28"/>
       <c r="C11" s="31"/>
       <c r="D11" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="27"/>
       <c r="B12" s="28"/>
       <c r="C12" s="30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -14058,31 +14336,31 @@
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="27"/>
       <c r="B15" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -14091,10 +14369,10 @@
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -14102,10 +14380,10 @@
       <c r="A17" s="27"/>
       <c r="B17" s="28"/>
       <c r="C17" s="13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E17" s="12"/>
     </row>
@@ -14114,7 +14392,7 @@
       <c r="B18" s="28"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E18" s="12"/>
     </row>
@@ -14123,7 +14401,7 @@
       <c r="B19" s="28"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E19" s="12"/>
     </row>
@@ -14132,7 +14410,7 @@
       <c r="B20" s="28"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E20" s="12"/>
     </row>
@@ -14140,17 +14418,17 @@
       <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="27"/>
       <c r="B22" s="28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14172,72 +14450,72 @@
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27"/>
       <c r="B27" s="24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27"/>
       <c r="B28" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27"/>
       <c r="B29" s="24" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27"/>
       <c r="B30" s="24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27"/>
       <c r="B31" s="24" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27"/>
       <c r="B32" s="24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27"/>
       <c r="B33" s="24" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="27"/>
       <c r="B34" s="24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27"/>
       <c r="B35" s="24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="27"/>
       <c r="B36" s="24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27"/>
       <c r="B37" s="24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14254,12 +14532,12 @@
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14332,13 +14610,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="15"/>
     </row>
@@ -14346,79 +14624,79 @@
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="37"/>
       <c r="B3" s="38" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="37"/>
       <c r="B7" s="38"/>
       <c r="C7" s="14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="37"/>
       <c r="B8" s="38"/>
       <c r="C8" s="14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37"/>
       <c r="B9" s="38"/>
       <c r="C9" s="14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D9" s="15"/>
     </row>
@@ -14426,17 +14704,17 @@
       <c r="A10" s="37"/>
       <c r="B10" s="38"/>
       <c r="C10" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="37"/>
       <c r="B11" s="38"/>
       <c r="C11" s="14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D11" s="15"/>
     </row>
@@ -14444,16 +14722,16 @@
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
       <c r="C12" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="37"/>
       <c r="B13" s="38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D13" s="12"/>
     </row>
@@ -14461,20 +14739,20 @@
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
       <c r="C14" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
       <c r="C15" s="13" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14482,7 +14760,7 @@
       <c r="B16" s="38"/>
       <c r="C16" s="13"/>
       <c r="D16" s="15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14490,7 +14768,7 @@
       <c r="B17" s="38"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14498,7 +14776,7 @@
       <c r="B18" s="38"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14506,7 +14784,7 @@
       <c r="B19" s="38"/>
       <c r="C19" s="13"/>
       <c r="D19" s="15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14514,7 +14792,7 @@
       <c r="B20" s="38"/>
       <c r="C20" s="13"/>
       <c r="D20" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14522,17 +14800,17 @@
       <c r="B21" s="38"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14540,7 +14818,7 @@
       <c r="B23" s="38"/>
       <c r="C23" s="13"/>
       <c r="D23" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14548,7 +14826,7 @@
       <c r="B24" s="38"/>
       <c r="C24" s="13"/>
       <c r="D24" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14556,7 +14834,7 @@
       <c r="B25" s="38"/>
       <c r="C25" s="13"/>
       <c r="D25" s="39" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14564,7 +14842,7 @@
       <c r="B26" s="38"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14572,7 +14850,7 @@
       <c r="B27" s="38"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14580,7 +14858,7 @@
       <c r="B28" s="38"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14588,7 +14866,7 @@
       <c r="B29" s="38"/>
       <c r="C29" s="13"/>
       <c r="D29" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14596,7 +14874,7 @@
       <c r="B30" s="38"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14604,7 +14882,7 @@
       <c r="B31" s="38"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14612,7 +14890,7 @@
       <c r="B32" s="38"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14620,7 +14898,7 @@
       <c r="B33" s="38"/>
       <c r="C33" s="13"/>
       <c r="D33" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14628,7 +14906,7 @@
       <c r="B34" s="38"/>
       <c r="C34" s="13"/>
       <c r="D34" s="40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14636,7 +14914,7 @@
       <c r="B35" s="38"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14644,7 +14922,7 @@
       <c r="B36" s="38"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14652,7 +14930,7 @@
       <c r="B37" s="38"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14660,7 +14938,7 @@
       <c r="B38" s="38"/>
       <c r="C38" s="13"/>
       <c r="D38" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14668,7 +14946,7 @@
       <c r="B39" s="38"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14676,14 +14954,14 @@
       <c r="B40" s="38"/>
       <c r="C40" s="13"/>
       <c r="D40" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="37"/>
       <c r="B41" s="38"/>
       <c r="C41" s="14" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D41" s="15"/>
     </row>
@@ -14691,22 +14969,22 @@
       <c r="A42" s="37"/>
       <c r="B42" s="38"/>
       <c r="C42" s="14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14714,7 +14992,7 @@
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
       <c r="D44" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14722,7 +15000,7 @@
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14730,7 +15008,7 @@
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14738,7 +15016,7 @@
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
       <c r="D47" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14746,7 +15024,7 @@
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
       <c r="D48" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14754,7 +15032,7 @@
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
       <c r="D49" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14762,17 +15040,17 @@
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
       <c r="D50" s="15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="37"/>
       <c r="B51" s="38"/>
       <c r="C51" s="41" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14780,7 +15058,7 @@
       <c r="B52" s="38"/>
       <c r="C52" s="41"/>
       <c r="D52" s="15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14788,7 +15066,7 @@
       <c r="B53" s="38"/>
       <c r="C53" s="41"/>
       <c r="D53" s="15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14796,7 +15074,7 @@
       <c r="B54" s="38"/>
       <c r="C54" s="41"/>
       <c r="D54" s="15" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14804,14 +15082,14 @@
       <c r="B55" s="38"/>
       <c r="C55" s="41"/>
       <c r="D55" s="15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="37"/>
       <c r="B56" s="38"/>
       <c r="C56" s="14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D56" s="15"/>
     </row>
@@ -14819,10 +15097,10 @@
       <c r="A57" s="37"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14830,7 +15108,7 @@
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
       <c r="D58" s="15" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14838,7 +15116,7 @@
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
       <c r="D59" s="15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14846,17 +15124,17 @@
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
       <c r="D60" s="15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="37"/>
       <c r="B61" s="38"/>
       <c r="C61" s="13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14864,7 +15142,7 @@
       <c r="B62" s="38"/>
       <c r="C62" s="13"/>
       <c r="D62" s="15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14872,7 +15150,7 @@
       <c r="B63" s="38"/>
       <c r="C63" s="13"/>
       <c r="D63" s="15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14880,7 +15158,7 @@
       <c r="B64" s="38"/>
       <c r="C64" s="13"/>
       <c r="D64" s="15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14888,7 +15166,7 @@
       <c r="B65" s="38"/>
       <c r="C65" s="13"/>
       <c r="D65" s="15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14896,17 +15174,17 @@
       <c r="B66" s="38"/>
       <c r="C66" s="13"/>
       <c r="D66" s="15" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="37"/>
       <c r="B67" s="38"/>
       <c r="C67" s="13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14914,7 +15192,7 @@
       <c r="B68" s="38"/>
       <c r="C68" s="13"/>
       <c r="D68" s="15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14922,7 +15200,7 @@
       <c r="B69" s="38"/>
       <c r="C69" s="13"/>
       <c r="D69" s="15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14930,7 +15208,7 @@
       <c r="B70" s="38"/>
       <c r="C70" s="13"/>
       <c r="D70" s="15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14938,7 +15216,7 @@
       <c r="B71" s="38"/>
       <c r="C71" s="13"/>
       <c r="D71" s="15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14946,7 +15224,7 @@
       <c r="B72" s="38"/>
       <c r="C72" s="13"/>
       <c r="D72" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14954,7 +15232,7 @@
       <c r="B73" s="38"/>
       <c r="C73" s="13"/>
       <c r="D73" s="15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14962,7 +15240,7 @@
       <c r="B74" s="38"/>
       <c r="C74" s="13"/>
       <c r="D74" s="15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14970,7 +15248,7 @@
       <c r="B75" s="38"/>
       <c r="C75" s="13"/>
       <c r="D75" s="15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14978,7 +15256,7 @@
       <c r="B76" s="38"/>
       <c r="C76" s="13"/>
       <c r="D76" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14986,34 +15264,34 @@
       <c r="B77" s="38"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="37"/>
       <c r="B78" s="38"/>
       <c r="D78" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="37"/>
       <c r="B79" s="38"/>
       <c r="C79" s="14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="37"/>
       <c r="B80" s="38"/>
       <c r="C80" s="41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15021,7 +15299,7 @@
       <c r="B81" s="38"/>
       <c r="C81" s="41"/>
       <c r="D81" s="40" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15029,7 +15307,7 @@
       <c r="B82" s="38"/>
       <c r="C82" s="41"/>
       <c r="D82" s="42" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15037,23 +15315,23 @@
       <c r="B83" s="38"/>
       <c r="C83" s="41"/>
       <c r="D83" s="42" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="37"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="37"/>
       <c r="B85" s="38" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="42"/>
@@ -15061,7 +15339,7 @@
     <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="37"/>
       <c r="B86" s="38" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="42"/>
@@ -15069,7 +15347,7 @@
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="37"/>
       <c r="B87" s="38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="42"/>
@@ -15077,7 +15355,7 @@
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="37"/>
       <c r="B88" s="38" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="42"/>
@@ -15085,7 +15363,7 @@
     <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="37"/>
       <c r="B89" s="38" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="42"/>
@@ -15093,7 +15371,7 @@
     <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="37"/>
       <c r="B90" s="38" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="42"/>
@@ -15101,7 +15379,7 @@
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="37"/>
       <c r="B91" s="38" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C91" s="38"/>
       <c r="D91" s="42"/>
@@ -15109,7 +15387,7 @@
     <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="37"/>
       <c r="B92" s="38" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="42"/>
@@ -15117,7 +15395,7 @@
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="37"/>
       <c r="B93" s="43" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="42"/>
@@ -15125,7 +15403,7 @@
     <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="37"/>
       <c r="B94" s="38" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="42"/>
@@ -15133,7 +15411,7 @@
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="37"/>
       <c r="B95" s="43" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="42"/>
@@ -15141,7 +15419,7 @@
     <row r="96" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="37"/>
       <c r="B96" s="43" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="42"/>
@@ -15149,7 +15427,7 @@
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="37"/>
       <c r="B97" s="43" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="42"/>
@@ -15157,7 +15435,7 @@
     <row r="98" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="37"/>
       <c r="B98" s="43" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C98" s="38"/>
       <c r="D98" s="42"/>
@@ -15165,7 +15443,7 @@
     <row r="99" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="37"/>
       <c r="B99" s="43" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="42"/>
@@ -15173,7 +15451,7 @@
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="37"/>
       <c r="B100" s="38" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="42"/>
@@ -15181,7 +15459,7 @@
     <row r="101" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="37"/>
       <c r="B101" s="38" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="42"/>
@@ -15189,7 +15467,7 @@
     <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="37"/>
       <c r="B102" s="43" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C102" s="38"/>
       <c r="D102" s="42"/>
@@ -15197,7 +15475,7 @@
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="37"/>
       <c r="B103" s="38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="42"/>
@@ -15205,7 +15483,7 @@
     <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="37"/>
       <c r="B104" s="38" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="42"/>
@@ -15213,33 +15491,33 @@
     <row r="105" customFormat="false" ht="162.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="37"/>
       <c r="B105" s="44" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="37"/>
       <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="323.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="37"/>
       <c r="B107" s="44"/>
       <c r="C107" s="13" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15247,27 +15525,27 @@
       <c r="B108" s="44"/>
       <c r="C108" s="13"/>
       <c r="D108" s="40" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="37"/>
       <c r="B109" s="44"/>
       <c r="C109" s="14" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="256.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="37"/>
       <c r="B110" s="44"/>
       <c r="C110" s="13" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15275,47 +15553,47 @@
       <c r="B111" s="44"/>
       <c r="C111" s="13"/>
       <c r="D111" s="42" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="37"/>
       <c r="B112" s="44"/>
       <c r="C112" s="14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="37"/>
       <c r="B113" s="45"/>
       <c r="C113" s="14" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D113" s="39" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="37"/>
       <c r="B114" s="45"/>
       <c r="C114" s="14" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D114" s="39" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="37"/>
       <c r="B115" s="45"/>
       <c r="C115" s="13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15323,26 +15601,26 @@
       <c r="B116" s="45"/>
       <c r="C116" s="13"/>
       <c r="D116" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="37"/>
       <c r="B117" s="45"/>
       <c r="C117" s="14" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="274.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="37"/>
       <c r="B118" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D118" s="30"/>
     </row>
@@ -15350,17 +15628,17 @@
       <c r="A119" s="37"/>
       <c r="B119" s="13"/>
       <c r="C119" s="30" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D119" s="30"/>
     </row>
     <row r="120" customFormat="false" ht="391.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="37"/>
       <c r="B120" s="13" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -15368,91 +15646,91 @@
       <c r="A121" s="37"/>
       <c r="B121" s="13"/>
       <c r="C121" s="30" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D121" s="30"/>
     </row>
     <row r="122" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="46" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="46"/>
       <c r="B123" s="13" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="46"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="46"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="46"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="46"/>
       <c r="B127" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="46"/>
       <c r="B128" s="13"/>
       <c r="C128" s="14" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="46"/>
       <c r="B129" s="13"/>
       <c r="C129" s="15" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D129" s="15"/>
     </row>
@@ -15460,7 +15738,7 @@
       <c r="A130" s="46"/>
       <c r="B130" s="13"/>
       <c r="C130" s="15" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D130" s="15"/>
     </row>
@@ -15468,7 +15746,7 @@
       <c r="A131" s="46"/>
       <c r="B131" s="13"/>
       <c r="C131" s="15" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D131" s="15"/>
     </row>
@@ -15476,17 +15754,17 @@
       <c r="A132" s="46"/>
       <c r="B132" s="13"/>
       <c r="C132" s="15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D132" s="15"/>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="46"/>
       <c r="B133" s="13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D133" s="15"/>
     </row>
@@ -15494,7 +15772,7 @@
       <c r="A134" s="46"/>
       <c r="B134" s="13"/>
       <c r="C134" s="15" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D134" s="15"/>
     </row>
@@ -15502,14 +15780,14 @@
       <c r="A135" s="46"/>
       <c r="B135" s="13"/>
       <c r="C135" s="15" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D135" s="15"/>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="46"/>
       <c r="B136" s="14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
@@ -15609,7 +15887,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="50" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15707,22 +15985,22 @@
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="50"/>
       <c r="B27" s="48" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="50"/>
       <c r="B28" s="48" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15730,77 +16008,77 @@
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="50" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="50"/>
       <c r="B31" s="56"/>
       <c r="C31" s="49" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="50"/>
       <c r="B32" s="56"/>
       <c r="C32" s="49" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="50"/>
       <c r="B33" s="56"/>
       <c r="C33" s="49" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="50" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="50"/>
       <c r="B36" s="48" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="50"/>
       <c r="B37" s="48" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="50"/>
       <c r="B38" s="48" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="55" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -15841,12 +16119,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="42" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="349.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D2" s="42" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -15878,7 +16156,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="42" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -15911,66 +16189,66 @@
   <sheetData>
     <row r="1" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="200.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15978,77 +16256,77 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16057,161 +16335,161 @@
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="62" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="62"/>
       <c r="B55" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="62"/>
       <c r="B56" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13"/>
       <c r="B59" s="63" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13"/>
       <c r="B60" s="63" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13"/>
       <c r="B61" s="63" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
       <c r="B62" s="63" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
       <c r="B63" s="63" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
       <c r="B64" s="63" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -16251,100 +16529,100 @@
   <sheetData>
     <row r="1" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="15" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38"/>
       <c r="B12" s="15" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="38"/>
       <c r="B13" s="15" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/System-Design-Architecture/Documents.xlsx
+++ b/System-Design-Architecture/Documents.xlsx
@@ -1755,7 +1755,29 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t xml:space="preserve">.
+ - Pay attention to the </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nouns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in your use case, even when they aren’t classes in your system, think about how the classes you do have can support the behavior your use case describe.</t>
     </r>
   </si>
   <si>
@@ -1860,6 +1882,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- Looking at the nouns (and verbs) in your use case to figure out classes and methods is called </t>
     </r>
@@ -1870,6 +1893,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">textual analysis</t>
     </r>
@@ -1879,6 +1903,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.
  - Textual analysis tells you what to focus on, not just what classes you should create.
@@ -11843,6 +11868,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -11850,6 +11876,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -12072,7 +12099,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12159,10 +12186,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -12463,9 +12486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>588960</xdr:colOff>
+      <xdr:colOff>588600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2121840</xdr:rowOff>
+      <xdr:rowOff>2121480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12479,7 +12502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10237320" y="8324640"/>
-          <a:ext cx="4801680" cy="2799000"/>
+          <a:ext cx="4801320" cy="2798640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12500,9 +12523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>665280</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1797840</xdr:rowOff>
+      <xdr:rowOff>1797480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12516,7 +12539,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10323000" y="11420280"/>
-          <a:ext cx="4792320" cy="2494080"/>
+          <a:ext cx="4791960" cy="2493720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12537,9 +12560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>522360</xdr:colOff>
+      <xdr:colOff>522000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>696600</xdr:rowOff>
+      <xdr:rowOff>696240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12553,7 +12576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10170720" y="24355440"/>
-          <a:ext cx="4801680" cy="2903760"/>
+          <a:ext cx="4801320" cy="2903400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12579,9 +12602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>280440</xdr:rowOff>
+      <xdr:rowOff>280080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12595,7 +12618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2792520" cy="1209240"/>
+          <a:ext cx="2792160" cy="1208880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12616,9 +12639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12632,7 +12655,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2574720" cy="1284840"/>
+          <a:ext cx="2574360" cy="1284480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12653,9 +12676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209880</xdr:colOff>
+      <xdr:colOff>209520</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>336600</xdr:rowOff>
+      <xdr:rowOff>336240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12669,7 +12692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4564800" cy="1332000"/>
+          <a:ext cx="4564440" cy="1331640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12690,9 +12713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293400</xdr:colOff>
+      <xdr:colOff>293040</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>280440</xdr:rowOff>
+      <xdr:rowOff>280080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12706,7 +12729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2792520" cy="1209240"/>
+          <a:ext cx="2792160" cy="1208880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12727,9 +12750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46440</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12743,7 +12766,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2574720" cy="1284840"/>
+          <a:ext cx="2574360" cy="1284480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12764,9 +12787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209880</xdr:colOff>
+      <xdr:colOff>209520</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>336600</xdr:rowOff>
+      <xdr:rowOff>336240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12780,7 +12803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4564800" cy="1332000"/>
+          <a:ext cx="4564440" cy="1331640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12806,9 +12829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>390240</xdr:rowOff>
+      <xdr:rowOff>389880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12822,7 +12845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11856600" y="0"/>
-          <a:ext cx="8208360" cy="4199760"/>
+          <a:ext cx="8208000" cy="4199400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13262,7 +13285,7 @@
       <c r="A2" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -13290,42 +13313,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="65" width="125"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="60"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="36" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="125"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="60"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="35" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>441</v>
       </c>
     </row>
@@ -13333,35 +13356,35 @@
       <c r="A5" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="66"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>443</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="63" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="66"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>446</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>448</v>
       </c>
     </row>
@@ -13395,303 +13418,303 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="58" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="110.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="38.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="110.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="39" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="39" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="39" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="39" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>457</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="39" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="39" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="39" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="39" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>463</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="69"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="39" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="69"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="39" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="39" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="39" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="39" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="69"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="39" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="69"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="39" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>473</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="71"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="70"/>
+      <c r="B22" s="39" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71"/>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="39" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="71"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="70"/>
+      <c r="B24" s="39" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="39" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="71"/>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="39" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="71"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="70"/>
+      <c r="B27" s="39" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="71"/>
-      <c r="B28" s="70" t="s">
+      <c r="A28" s="70"/>
+      <c r="B28" s="69" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41"/>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="39" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41"/>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="39" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="39" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41"/>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="39" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="70" t="s">
         <v>488</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="41" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="71"/>
-      <c r="B35" s="42" t="s">
+      <c r="A35" s="70"/>
+      <c r="B35" s="41" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="71"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="70"/>
+      <c r="B36" s="41" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="71"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="70"/>
+      <c r="B37" s="41" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="68" t="s">
         <v>493</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="41" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="69"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="68"/>
+      <c r="B39" s="41" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="69"/>
-      <c r="B40" s="42" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="41" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="69"/>
-      <c r="B41" s="42" t="s">
+      <c r="A41" s="68"/>
+      <c r="B41" s="41" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="69"/>
-      <c r="B42" s="42" t="s">
+      <c r="A42" s="68"/>
+      <c r="B42" s="41" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="69"/>
-      <c r="B43" s="42" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="41" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="72"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="72" t="s">
         <v>500</v>
       </c>
-      <c r="B45" s="73"/>
+      <c r="B45" s="72"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="71" t="s">
         <v>501</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="73" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13872,17 +13895,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="149.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="149.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>504</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -13890,7 +13913,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="75"/>
+      <c r="B4" s="74"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13911,7 +13934,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14121,8 +14144,8 @@
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="113.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+    <row r="21" customFormat="false" ht="134.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -14134,22 +14157,27 @@
       <c r="D21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="41.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11"/>
       <c r="B22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="69.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11"/>
       <c r="B23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -14201,27 +14229,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="30.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="29.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="27.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="11.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="116.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="29.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="27.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="116.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -14231,8 +14259,8 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -14242,8 +14270,8 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -14253,8 +14281,8 @@
       <c r="E4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="12" t="s">
         <v>95</v>
       </c>
@@ -14262,50 +14290,50 @@
       <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>102</v>
       </c>
       <c r="E10" s="21" t="s">
@@ -14313,9 +14341,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="15" t="s">
         <v>104</v>
       </c>
@@ -14324,17 +14352,17 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="13" t="s">
         <v>107</v>
       </c>
@@ -14344,8 +14372,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="13" t="s">
         <v>109</v>
       </c>
@@ -14355,8 +14383,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -14366,8 +14394,8 @@
       <c r="E15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="14" t="s">
         <v>113</v>
       </c>
@@ -14377,8 +14405,8 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="13" t="s">
         <v>97</v>
       </c>
@@ -14388,8 +14416,8 @@
       <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12" t="s">
         <v>116</v>
@@ -14397,8 +14425,8 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12" t="s">
         <v>117</v>
@@ -14406,8 +14434,8 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12" t="s">
         <v>118</v>
@@ -14415,8 +14443,8 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="14" t="s">
         <v>119</v>
       </c>
@@ -14426,125 +14454,125 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27"/>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27"/>
-      <c r="B36" s="24" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="23" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="23" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27"/>
+      <c r="A39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27"/>
+      <c r="A40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27"/>
+      <c r="A41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27"/>
+      <c r="A42" s="26"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34"/>
+      <c r="A45" s="33"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34"/>
+      <c r="A46" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -14601,18 +14629,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="20.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="167.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="36" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="167.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="35" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>137</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -14621,8 +14649,8 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="14" t="s">
         <v>139</v>
       </c>
@@ -14631,8 +14659,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -14643,8 +14671,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="14" t="s">
         <v>144</v>
       </c>
@@ -14653,8 +14681,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="14" t="s">
         <v>146</v>
       </c>
@@ -14663,8 +14691,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="14" t="s">
         <v>148</v>
       </c>
@@ -14673,8 +14701,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="14" t="s">
         <v>150</v>
       </c>
@@ -14683,8 +14711,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="14" t="s">
         <v>152</v>
       </c>
@@ -14693,16 +14721,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="14" t="s">
         <v>154</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="14" t="s">
         <v>155</v>
       </c>
@@ -14711,23 +14739,23 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="14" t="s">
         <v>157</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -14736,8 +14764,8 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="14" t="s">
         <v>161</v>
       </c>
@@ -14746,8 +14774,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="13" t="s">
         <v>163</v>
       </c>
@@ -14756,56 +14784,56 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="13"/>
       <c r="D16" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="13"/>
       <c r="D19" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="13"/>
       <c r="D20" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="13" t="s">
         <v>171</v>
       </c>
@@ -14814,160 +14842,160 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="13"/>
       <c r="D23" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="13"/>
       <c r="D24" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="13"/>
       <c r="D29" s="15" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="38" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="38" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="13"/>
       <c r="D33" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="39" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="38" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="38" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="38" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="13"/>
       <c r="D38" s="15" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="13"/>
       <c r="D40" s="15" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="14" t="s">
         <v>192</v>
       </c>
@@ -14976,11 +15004,11 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>195</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -14988,65 +15016,65 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="15" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="15" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="15" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="15" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="41" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="40" t="s">
         <v>204</v>
       </c>
       <c r="D51" s="15" t="s">
@@ -15054,82 +15082,82 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="41"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="15" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="41"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="40"/>
       <c r="D53" s="15" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="41"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="15" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="41"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="15" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="14" t="s">
         <v>210</v>
       </c>
       <c r="D56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="498.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="39" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="15" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="15" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="15" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="13" t="s">
         <v>216</v>
       </c>
@@ -15138,48 +15166,48 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="13"/>
       <c r="D62" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="13"/>
       <c r="D63" s="15" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="37"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="13"/>
       <c r="D64" s="15" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="13"/>
       <c r="D65" s="15" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="37"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="13"/>
       <c r="D66" s="15" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="37"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="13" t="s">
         <v>222</v>
       </c>
@@ -15188,95 +15216,95 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="37"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="13"/>
       <c r="D68" s="15" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="13"/>
       <c r="D69" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="37"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="13"/>
       <c r="D70" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="37"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="13"/>
       <c r="D71" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="37"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="13"/>
       <c r="D72" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="37"/>
-      <c r="B73" s="38"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="13"/>
       <c r="D73" s="15" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="37"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="13"/>
       <c r="D74" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="37"/>
-      <c r="B75" s="38"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="13"/>
       <c r="D75" s="15" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="37"/>
-      <c r="B76" s="38"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="13"/>
       <c r="D76" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="38" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="37"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="37"/>
       <c r="D78" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="37"/>
-      <c r="B79" s="38"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="14" t="s">
         <v>235</v>
       </c>
@@ -15285,9 +15313,9 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="41" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="40" t="s">
         <v>237</v>
       </c>
       <c r="D80" s="15" t="s">
@@ -15295,202 +15323,202 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="37"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="40" t="s">
+      <c r="A81" s="36"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="39" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="37"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42" t="s">
+      <c r="A82" s="36"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="41" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="37"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42" t="s">
+      <c r="A83" s="36"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="37"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="41" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="37"/>
-      <c r="B85" s="38" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="42"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="41"/>
     </row>
     <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="37"/>
-      <c r="B86" s="38" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="42"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="41"/>
     </row>
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="37"/>
-      <c r="B87" s="38" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="42"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="42"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="41"/>
     </row>
     <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="42"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="41"/>
     </row>
     <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="42"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="41"/>
     </row>
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="37"/>
-      <c r="B91" s="38" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="42"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="41"/>
     </row>
     <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="42"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="41"/>
     </row>
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="37"/>
-      <c r="B93" s="43" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="42"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="41"/>
     </row>
     <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="37"/>
-      <c r="B94" s="38" t="s">
+      <c r="A94" s="36"/>
+      <c r="B94" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="42"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="41"/>
     </row>
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="37"/>
-      <c r="B95" s="43" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="42"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="41"/>
     </row>
     <row r="96" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="37"/>
-      <c r="B96" s="43" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="42"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="41"/>
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="37"/>
-      <c r="B97" s="43" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="42"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="41"/>
     </row>
     <row r="98" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="37"/>
-      <c r="B98" s="43" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="42"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="41"/>
     </row>
     <row r="99" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="37"/>
-      <c r="B99" s="43" t="s">
+      <c r="A99" s="36"/>
+      <c r="B99" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="42"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="41"/>
     </row>
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="37"/>
-      <c r="B100" s="38" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="42"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="41"/>
     </row>
     <row r="101" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38" t="s">
+      <c r="A101" s="36"/>
+      <c r="B101" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="42"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="41"/>
     </row>
     <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="37"/>
-      <c r="B102" s="43" t="s">
+      <c r="A102" s="36"/>
+      <c r="B102" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="42"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="41"/>
     </row>
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="37"/>
-      <c r="B103" s="38" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="42"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="41"/>
     </row>
     <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="37"/>
-      <c r="B104" s="38" t="s">
+      <c r="A104" s="36"/>
+      <c r="B104" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="42"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="41"/>
     </row>
     <row r="105" customFormat="false" ht="162.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="37"/>
-      <c r="B105" s="44" t="s">
+      <c r="A105" s="36"/>
+      <c r="B105" s="43" t="s">
         <v>264</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -15501,8 +15529,8 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="37"/>
-      <c r="B106" s="44"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="14" t="s">
         <v>267</v>
       </c>
@@ -15511,84 +15539,84 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="323.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="37"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D107" s="42" t="s">
+      <c r="D107" s="41" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="37"/>
-      <c r="B108" s="44"/>
+      <c r="A108" s="36"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="13"/>
-      <c r="D108" s="40" t="s">
+      <c r="D108" s="39" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="37"/>
-      <c r="B109" s="44"/>
+      <c r="A109" s="36"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D109" s="42" t="s">
+      <c r="D109" s="41" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="256.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="37"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D110" s="40" t="s">
+      <c r="D110" s="39" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="37"/>
-      <c r="B111" s="44"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="42" t="s">
+      <c r="D111" s="41" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="37"/>
-      <c r="B112" s="44"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="D112" s="42" t="s">
+      <c r="D112" s="41" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="37"/>
-      <c r="B113" s="45"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D113" s="39" t="s">
+      <c r="D113" s="38" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="37"/>
-      <c r="B114" s="45"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D114" s="39" t="s">
+      <c r="D114" s="38" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="37"/>
-      <c r="B115" s="45"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="44"/>
       <c r="C115" s="13" t="s">
         <v>283</v>
       </c>
@@ -15597,16 +15625,16 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="37"/>
-      <c r="B116" s="45"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="44"/>
       <c r="C116" s="13"/>
       <c r="D116" s="15" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="37"/>
-      <c r="B117" s="45"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="44"/>
       <c r="C117" s="14" t="s">
         <v>286</v>
       </c>
@@ -15615,25 +15643,25 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="274.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="37"/>
+      <c r="A118" s="36"/>
       <c r="B118" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="D118" s="30"/>
+      <c r="D118" s="29"/>
     </row>
     <row r="119" customFormat="false" ht="243.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="37"/>
+      <c r="A119" s="36"/>
       <c r="B119" s="13"/>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="D119" s="30"/>
+      <c r="D119" s="29"/>
     </row>
     <row r="120" customFormat="false" ht="391.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="37"/>
+      <c r="A120" s="36"/>
       <c r="B120" s="13" t="s">
         <v>291</v>
       </c>
@@ -15643,15 +15671,15 @@
       <c r="D120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="231" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="37"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="13"/>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="D121" s="30"/>
+      <c r="D121" s="29"/>
     </row>
     <row r="122" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="45" t="s">
         <v>294</v>
       </c>
       <c r="B122" s="14" t="s">
@@ -15663,7 +15691,7 @@
       <c r="D122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="46"/>
+      <c r="A123" s="45"/>
       <c r="B123" s="13" t="s">
         <v>297</v>
       </c>
@@ -15675,7 +15703,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="46"/>
+      <c r="A124" s="45"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14" t="s">
         <v>300</v>
@@ -15685,7 +15713,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="46"/>
+      <c r="A125" s="45"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14" t="s">
         <v>302</v>
@@ -15695,7 +15723,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="46"/>
+      <c r="A126" s="45"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14" t="s">
         <v>304</v>
@@ -15705,7 +15733,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="46"/>
+      <c r="A127" s="45"/>
       <c r="B127" s="13" t="s">
         <v>306</v>
       </c>
@@ -15717,7 +15745,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="46"/>
+      <c r="A128" s="45"/>
       <c r="B128" s="13"/>
       <c r="C128" s="14" t="s">
         <v>309</v>
@@ -15727,7 +15755,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="46"/>
+      <c r="A129" s="45"/>
       <c r="B129" s="13"/>
       <c r="C129" s="15" t="s">
         <v>311</v>
@@ -15735,7 +15763,7 @@
       <c r="D129" s="15"/>
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="46"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="13"/>
       <c r="C130" s="15" t="s">
         <v>312</v>
@@ -15743,7 +15771,7 @@
       <c r="D130" s="15"/>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="46"/>
+      <c r="A131" s="45"/>
       <c r="B131" s="13"/>
       <c r="C131" s="15" t="s">
         <v>313</v>
@@ -15751,7 +15779,7 @@
       <c r="D131" s="15"/>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="46"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="13"/>
       <c r="C132" s="15" t="s">
         <v>314</v>
@@ -15759,7 +15787,7 @@
       <c r="D132" s="15"/>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="46"/>
+      <c r="A133" s="45"/>
       <c r="B133" s="13" t="s">
         <v>315</v>
       </c>
@@ -15769,7 +15797,7 @@
       <c r="D133" s="15"/>
     </row>
     <row r="134" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="46"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="13"/>
       <c r="C134" s="15" t="s">
         <v>317</v>
@@ -15777,7 +15805,7 @@
       <c r="D134" s="15"/>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="46"/>
+      <c r="A135" s="45"/>
       <c r="B135" s="13"/>
       <c r="C135" s="15" t="s">
         <v>318</v>
@@ -15785,7 +15813,7 @@
       <c r="D135" s="15"/>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="46"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="14" t="s">
         <v>319</v>
       </c>
@@ -15880,204 +15908,204 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="55.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="54.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="49" width="101.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="55.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="54.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="101.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="53"/>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="47" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="47" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="55"/>
+      <c r="A29" s="54"/>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="48" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="50"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="48" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="50"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="48" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="50"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="49" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="48" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="56" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="56" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="56" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="50"/>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="56" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="54" t="s">
         <v>340</v>
       </c>
     </row>
@@ -16114,16 +16142,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="151.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="151.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="349.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>342</v>
       </c>
     </row>
@@ -16151,11 +16179,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="140"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="140"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>343</v>
       </c>
     </row>
@@ -16188,13 +16216,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>344</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>346</v>
       </c>
     </row>
@@ -16330,7 +16358,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="61"/>
+      <c r="B23" s="60"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16428,7 +16456,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="61" t="s">
         <v>395</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -16436,13 +16464,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="4" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="4" t="s">
         <v>398</v>
       </c>
@@ -16458,37 +16486,37 @@
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13"/>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="62" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13"/>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="62" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13"/>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="62" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="62" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="62" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="62" t="s">
         <v>406</v>
       </c>
     </row>
@@ -16606,7 +16634,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>426</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -16614,13 +16642,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="15" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="15" t="s">
         <v>429</v>
       </c>

--- a/System-Design-Architecture/Documents.xlsx
+++ b/System-Design-Architecture/Documents.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="507">
   <si>
     <t xml:space="preserve">Kiến Trúc về Microservice</t>
   </si>
@@ -1917,8 +1917,46 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> - With a good use case complete, textual analysis is a quick and easy way to figure out the classes in your system.</t>
-    </r>
+      <t xml:space="preserve"> - With a good use case complete, textual analysis is a quick and easy way to figure out the classes in your system.
+ - Pay attention to the </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nouns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> in your use case, even when they aren’t classes in your system. Think about how the classes you do have can support the behavior describes.
+ - The verbs in your use case are (usually) the methods of the objects in your system.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet points</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analysis helps you ensure that your software works in the real world context, and not just in a perfect environment.
+ - Use cases are meant to be understood by you,your managers, your customers, and other programmers.
+ - You should write your use cases in whatever format makes them most usable to you and the other people who are looking at them
+ - A good use case precisely(chính xác) lays out what a system does, but does not indicate how the system accomplishes that task
+ - Each use case should focus on only one customer goal. If you have multiple goals you will need to write multiple use cases.
+ - Class diagram give an easy way to show your system and its code constructs at a 10000-foot view. The attributes in a class diagram usually map to the member variables of your classes.
+ - The operations in a class diagram usually represent the methods of your classes.
+ - Class diagram leave lots of detail out, such as class constructors, some type information, and the purpose of operations on your classes.
+ - Textual analysis helps you translate a use case into code-level classes, attributes, and operations.
+ - The nouns of a use case are candidates for classes in your system, and the verbs are candidates for the methods on your system’s classes.</t>
   </si>
   <si>
     <t xml:space="preserve">HEAD FIRST DESIGN PATTERN</t>
@@ -2762,9 +2800,6 @@
     <t xml:space="preserve">Favor composition over inheritance:
  - The Observer Pattern uses composition to compose any number of Observers with their Subject.
  - These relationships are set up at runtime by composition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullet points</t>
   </si>
   <si>
     <t xml:space="preserve"> - The Observer Pattern defines a one-to-many relationship between objects.
@@ -12099,7 +12134,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12186,6 +12221,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -12486,9 +12525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>588600</xdr:colOff>
+      <xdr:colOff>588240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2121480</xdr:rowOff>
+      <xdr:rowOff>2121120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12502,7 +12541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10237320" y="8324640"/>
-          <a:ext cx="4801320" cy="2798640"/>
+          <a:ext cx="4800960" cy="2798280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12523,9 +12562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>664560</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1797480</xdr:rowOff>
+      <xdr:rowOff>1797120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12539,7 +12578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10323000" y="11420280"/>
-          <a:ext cx="4791960" cy="2493720"/>
+          <a:ext cx="4791600" cy="2493360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12560,9 +12599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>521640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>696240</xdr:rowOff>
+      <xdr:rowOff>695880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12576,7 +12615,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10170720" y="24355440"/>
-          <a:ext cx="4801320" cy="2903400"/>
+          <a:ext cx="4800960" cy="2903040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12602,9 +12641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>292680</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>280080</xdr:rowOff>
+      <xdr:rowOff>279720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12618,7 +12657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2792160" cy="1208880"/>
+          <a:ext cx="2791800" cy="1208520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12639,9 +12678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46440</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12655,7 +12694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2574360" cy="1284480"/>
+          <a:ext cx="2574000" cy="1284120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12676,9 +12715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209520</xdr:colOff>
+      <xdr:colOff>209160</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>336240</xdr:rowOff>
+      <xdr:rowOff>335880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12692,7 +12731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4564440" cy="1331640"/>
+          <a:ext cx="4564080" cy="1331280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12713,9 +12752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>293040</xdr:colOff>
+      <xdr:colOff>292680</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>280080</xdr:rowOff>
+      <xdr:rowOff>279720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12729,7 +12768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2792160" cy="1208880"/>
+          <a:ext cx="2791800" cy="1208520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12750,9 +12789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46440</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12766,7 +12805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2574360" cy="1284480"/>
+          <a:ext cx="2574000" cy="1284120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12787,9 +12826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209520</xdr:colOff>
+      <xdr:colOff>209160</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>336240</xdr:rowOff>
+      <xdr:rowOff>335880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12803,7 +12842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4564440" cy="1331640"/>
+          <a:ext cx="4564080" cy="1331280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12829,9 +12868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>389880</xdr:rowOff>
+      <xdr:rowOff>389520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12845,7 +12884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11856600" y="0"/>
-          <a:ext cx="8208000" cy="4199400"/>
+          <a:ext cx="8207640" cy="4199040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13275,18 +13314,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B2" s="38" t="s">
         <v>433</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -13313,79 +13352,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="64" width="125"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="60"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="35" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="65" width="125"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="60"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="36" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="66" t="s">
         <v>435</v>
       </c>
+      <c r="B1" s="67" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66" t="s">
-        <v>436</v>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="67" t="s">
         <v>439</v>
       </c>
+      <c r="C3" s="68" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="64" t="s">
         <v>441</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5" s="66"/>
+        <v>443</v>
+      </c>
+      <c r="B5" s="67"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
-        <v>443</v>
-      </c>
-      <c r="B6" s="66"/>
+      <c r="A6" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="B7" s="66"/>
+      <c r="A7" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="67"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
-        <v>445</v>
+      <c r="A8" s="64" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
-        <v>446</v>
-      </c>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="64" t="s">
         <v>447</v>
       </c>
+      <c r="B9" s="67" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="s">
-        <v>448</v>
+      <c r="A10" s="64" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -13418,304 +13457,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="57" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="110.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="58" width="38.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="110.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="69" t="s">
         <v>450</v>
       </c>
+      <c r="B1" s="42" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68"/>
-      <c r="B2" s="39" t="s">
-        <v>451</v>
+      <c r="A2" s="69"/>
+      <c r="B2" s="40" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68"/>
-      <c r="B3" s="39" t="s">
-        <v>452</v>
+      <c r="A3" s="69"/>
+      <c r="B3" s="40" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="68" t="s">
-        <v>453</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="69" t="s">
         <v>454</v>
       </c>
+      <c r="B4" s="40" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68"/>
-      <c r="B5" s="39" t="s">
-        <v>455</v>
+      <c r="A5" s="69"/>
+      <c r="B5" s="40" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="39" t="s">
-        <v>456</v>
+      <c r="A6" s="69"/>
+      <c r="B6" s="40" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68" t="s">
-        <v>457</v>
-      </c>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="69" t="s">
         <v>458</v>
       </c>
+      <c r="B7" s="40" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="39" t="s">
-        <v>459</v>
+      <c r="A8" s="69"/>
+      <c r="B8" s="40" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="39" t="s">
-        <v>460</v>
+      <c r="A9" s="69"/>
+      <c r="B9" s="40" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="39" t="s">
-        <v>461</v>
+      <c r="A10" s="69"/>
+      <c r="B10" s="40" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68"/>
-      <c r="B11" s="39" t="s">
-        <v>462</v>
+      <c r="A11" s="69"/>
+      <c r="B11" s="40" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68" t="s">
-        <v>463</v>
-      </c>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="69" t="s">
         <v>464</v>
       </c>
+      <c r="B12" s="40" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68"/>
-      <c r="B13" s="39" t="s">
-        <v>465</v>
+      <c r="A13" s="69"/>
+      <c r="B13" s="40" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="39" t="s">
-        <v>466</v>
+      <c r="A14" s="69"/>
+      <c r="B14" s="40" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68"/>
-      <c r="B15" s="39" t="s">
-        <v>467</v>
+      <c r="A15" s="69"/>
+      <c r="B15" s="40" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68"/>
-      <c r="B16" s="39" t="s">
-        <v>468</v>
+      <c r="A16" s="69"/>
+      <c r="B16" s="40" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68"/>
-      <c r="B17" s="39" t="s">
-        <v>469</v>
+      <c r="A17" s="69"/>
+      <c r="B17" s="40" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68"/>
-      <c r="B18" s="39" t="s">
-        <v>470</v>
+      <c r="A18" s="69"/>
+      <c r="B18" s="40" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68"/>
-      <c r="B19" s="39" t="s">
-        <v>471</v>
+      <c r="A19" s="69"/>
+      <c r="B19" s="40" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69" t="s">
-        <v>472</v>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="70" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="71" t="s">
         <v>474</v>
       </c>
+      <c r="B21" s="40" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="70"/>
-      <c r="B22" s="39" t="s">
-        <v>475</v>
+      <c r="A22" s="71"/>
+      <c r="B22" s="40" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="70"/>
-      <c r="B23" s="39" t="s">
-        <v>476</v>
+      <c r="A23" s="71"/>
+      <c r="B23" s="40" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="70"/>
-      <c r="B24" s="39" t="s">
-        <v>477</v>
+      <c r="A24" s="71"/>
+      <c r="B24" s="40" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="70"/>
-      <c r="B25" s="39" t="s">
-        <v>478</v>
+      <c r="A25" s="71"/>
+      <c r="B25" s="40" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="70"/>
-      <c r="B26" s="39" t="s">
-        <v>479</v>
+      <c r="A26" s="71"/>
+      <c r="B26" s="40" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="70"/>
-      <c r="B27" s="39" t="s">
-        <v>480</v>
+      <c r="A27" s="71"/>
+      <c r="B27" s="40" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="70"/>
-      <c r="B28" s="69" t="s">
-        <v>481</v>
+      <c r="A28" s="71"/>
+      <c r="B28" s="70" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="s">
-        <v>482</v>
-      </c>
-      <c r="B29" s="39" t="s">
+      <c r="A29" s="41" t="s">
         <v>483</v>
       </c>
+      <c r="B29" s="40" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40"/>
-      <c r="B30" s="39" t="s">
-        <v>484</v>
+      <c r="A30" s="41"/>
+      <c r="B30" s="40" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40"/>
-      <c r="B31" s="39" t="s">
-        <v>485</v>
+      <c r="A31" s="41"/>
+      <c r="B31" s="40" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40"/>
-      <c r="B32" s="39" t="s">
-        <v>486</v>
+      <c r="A32" s="41"/>
+      <c r="B32" s="40" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40"/>
-      <c r="B33" s="39" t="s">
-        <v>487</v>
+      <c r="A33" s="41"/>
+      <c r="B33" s="40" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="70" t="s">
-        <v>488</v>
-      </c>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="71" t="s">
         <v>489</v>
       </c>
+      <c r="B34" s="42" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="70"/>
-      <c r="B35" s="41" t="s">
-        <v>490</v>
+      <c r="A35" s="71"/>
+      <c r="B35" s="42" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="70"/>
-      <c r="B36" s="41" t="s">
-        <v>491</v>
+      <c r="A36" s="71"/>
+      <c r="B36" s="42" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="70"/>
-      <c r="B37" s="41" t="s">
-        <v>492</v>
+      <c r="A37" s="71"/>
+      <c r="B37" s="42" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="68" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="69" t="s">
         <v>494</v>
       </c>
+      <c r="B38" s="42" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="68"/>
-      <c r="B39" s="41" t="s">
-        <v>495</v>
+      <c r="A39" s="69"/>
+      <c r="B39" s="42" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="68"/>
-      <c r="B40" s="41" t="s">
-        <v>496</v>
+      <c r="A40" s="69"/>
+      <c r="B40" s="42" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="68"/>
-      <c r="B41" s="41" t="s">
-        <v>497</v>
+      <c r="A41" s="69"/>
+      <c r="B41" s="42" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="68"/>
-      <c r="B42" s="41" t="s">
-        <v>498</v>
+      <c r="A42" s="69"/>
+      <c r="B42" s="42" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="68"/>
-      <c r="B43" s="41" t="s">
-        <v>499</v>
+      <c r="A43" s="69"/>
+      <c r="B43" s="42" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="71"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="72" t="s">
-        <v>500</v>
-      </c>
-      <c r="B45" s="72"/>
+      <c r="A45" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="B45" s="73"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="71" t="s">
-        <v>501</v>
-      </c>
-      <c r="B47" s="73" t="s">
+      <c r="A47" s="72" t="s">
         <v>502</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -13895,25 +13934,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="149.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="149.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="41" t="s">
-        <v>503</v>
+      <c r="B1" s="42" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>504</v>
+      <c r="A3" s="42" t="s">
+        <v>505</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="74"/>
+      <c r="B4" s="75"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13933,8 +13972,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14166,7 +14205,7 @@
       </c>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="69.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
       <c r="B23" s="8" t="s">
         <v>86</v>
@@ -14176,12 +14215,19 @@
       </c>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="136.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11"/>
+      <c r="B24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="22"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:B4"/>
@@ -14205,6 +14251,7 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -14229,350 +14276,350 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="30.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="29.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="27.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="11.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="116.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="29.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="27.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="116.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28" t="s">
-        <v>90</v>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27" t="s">
-        <v>93</v>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="C7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="31"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>102</v>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
-        <v>111</v>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="14" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
-        <v>121</v>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="23" t="s">
-        <v>122</v>
+      <c r="A27" s="27"/>
+      <c r="B27" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26"/>
-      <c r="B28" s="23" t="s">
-        <v>123</v>
+      <c r="A28" s="27"/>
+      <c r="B28" s="24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26"/>
-      <c r="B29" s="23" t="s">
-        <v>124</v>
+      <c r="A29" s="27"/>
+      <c r="B29" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26"/>
-      <c r="B30" s="23" t="s">
-        <v>125</v>
+      <c r="A30" s="27"/>
+      <c r="B30" s="24" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26"/>
-      <c r="B31" s="23" t="s">
-        <v>126</v>
+      <c r="A31" s="27"/>
+      <c r="B31" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23" t="s">
-        <v>127</v>
+      <c r="A32" s="27"/>
+      <c r="B32" s="24" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23" t="s">
-        <v>128</v>
+      <c r="A33" s="27"/>
+      <c r="B33" s="24" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26"/>
-      <c r="B34" s="23" t="s">
-        <v>129</v>
+      <c r="A34" s="27"/>
+      <c r="B34" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26"/>
-      <c r="B35" s="23" t="s">
-        <v>130</v>
+      <c r="A35" s="27"/>
+      <c r="B35" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26"/>
-      <c r="B36" s="23" t="s">
-        <v>131</v>
+      <c r="A36" s="27"/>
+      <c r="B36" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="B37" s="23" t="s">
-        <v>132</v>
+      <c r="A37" s="27"/>
+      <c r="B37" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
-        <v>133</v>
+      <c r="A38" s="27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
+      <c r="A39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
+      <c r="A40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
+      <c r="A41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26"/>
+      <c r="A42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
-        <v>134</v>
+      <c r="A43" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="33" t="s">
-        <v>135</v>
+      <c r="A44" s="34" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="33"/>
+      <c r="A46" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -14629,1193 +14676,1193 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="20.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="167.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="35" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="167.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="36" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="37" t="s">
         <v>137</v>
       </c>
+      <c r="B1" s="38" t="s">
+        <v>138</v>
+      </c>
       <c r="C1" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
-        <v>141</v>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
-        <v>159</v>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="13"/>
       <c r="D16" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="13"/>
       <c r="D17" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="13"/>
       <c r="D19" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="13"/>
       <c r="D20" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="13"/>
       <c r="D21" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="13"/>
       <c r="D23" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="13"/>
       <c r="D24" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="38" t="s">
-        <v>175</v>
+      <c r="D25" s="39" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="38" t="s">
-        <v>176</v>
+      <c r="D26" s="39" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="38" t="s">
-        <v>177</v>
+      <c r="D27" s="39" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="38" t="s">
-        <v>178</v>
+      <c r="D28" s="39" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="13"/>
       <c r="D29" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="38" t="s">
-        <v>180</v>
+      <c r="D30" s="39" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="38" t="s">
-        <v>181</v>
+      <c r="D31" s="39" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="38" t="s">
-        <v>182</v>
+      <c r="D32" s="39" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="13"/>
       <c r="D33" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="39" t="s">
-        <v>184</v>
+      <c r="D34" s="40" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="38" t="s">
-        <v>185</v>
+      <c r="D35" s="39" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="38" t="s">
-        <v>186</v>
+      <c r="D36" s="39" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="38" t="s">
-        <v>187</v>
+      <c r="D37" s="39" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="13"/>
       <c r="D38" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="13"/>
       <c r="D39" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="13"/>
       <c r="D40" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D41" s="15"/>
     </row>
     <row r="42" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="37" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38" t="s">
         <v>195</v>
       </c>
+      <c r="C43" s="38" t="s">
+        <v>196</v>
+      </c>
       <c r="D43" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="40" t="s">
-        <v>204</v>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="40"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="40"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D56" s="15"/>
     </row>
     <row r="57" customFormat="false" ht="498.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="39" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38" t="s">
         <v>212</v>
       </c>
+      <c r="D57" s="40" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="13"/>
       <c r="D62" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="13"/>
       <c r="D63" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="13"/>
       <c r="D64" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="13"/>
       <c r="D65" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="13"/>
       <c r="D66" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="13"/>
       <c r="D68" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="13"/>
       <c r="D69" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="36"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="13"/>
       <c r="D70" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="36"/>
-      <c r="B71" s="37"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="13"/>
       <c r="D71" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="13"/>
       <c r="D72" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="36"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="13"/>
       <c r="D73" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="36"/>
-      <c r="B74" s="37"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="13"/>
       <c r="D74" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="13"/>
       <c r="D75" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="36"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="13"/>
       <c r="D76" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="36"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="38" t="s">
-        <v>233</v>
+      <c r="D77" s="39" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="36"/>
-      <c r="B78" s="37"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="38"/>
       <c r="D78" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="36"/>
-      <c r="B79" s="37"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="36"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="40" t="s">
-        <v>237</v>
+      <c r="A80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="41" t="s">
+        <v>238</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="36"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="39" t="s">
-        <v>239</v>
+      <c r="A81" s="37"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="40" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="36"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="41" t="s">
-        <v>240</v>
+      <c r="A82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="36"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="41" t="s">
-        <v>241</v>
+      <c r="A83" s="37"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="36"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D84" s="41" t="s">
+      <c r="A84" s="37"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38" t="s">
         <v>243</v>
       </c>
+      <c r="D84" s="42" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="36"/>
-      <c r="B85" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="41"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="42"/>
     </row>
     <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="36"/>
-      <c r="B86" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="41"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" s="38"/>
+      <c r="D86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="36"/>
-      <c r="B87" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="41"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="38"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="41"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="38"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="36"/>
-      <c r="B89" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="41"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="38"/>
+      <c r="D89" s="42"/>
     </row>
     <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="36"/>
-      <c r="B90" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="37"/>
-      <c r="D90" s="41"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="42"/>
     </row>
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="36"/>
-      <c r="B91" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="41"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="36"/>
-      <c r="B92" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" s="37"/>
-      <c r="D92" s="41"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="42"/>
     </row>
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="36"/>
-      <c r="B93" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="37"/>
-      <c r="D93" s="41"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="42"/>
     </row>
     <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="36"/>
-      <c r="B94" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" s="37"/>
-      <c r="D94" s="41"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C94" s="38"/>
+      <c r="D94" s="42"/>
     </row>
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="36"/>
-      <c r="B95" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="C95" s="37"/>
-      <c r="D95" s="41"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="42"/>
     </row>
     <row r="96" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="36"/>
-      <c r="B96" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="41"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" s="38"/>
+      <c r="D96" s="42"/>
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="36"/>
-      <c r="B97" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="C97" s="37"/>
-      <c r="D97" s="41"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" s="38"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="36"/>
-      <c r="B98" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="41"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="36"/>
-      <c r="B99" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="41"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="36"/>
-      <c r="B100" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="C100" s="37"/>
-      <c r="D100" s="41"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="101" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="36"/>
-      <c r="B101" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="41"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="42"/>
     </row>
     <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="36"/>
-      <c r="B102" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="41"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="42"/>
     </row>
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="36"/>
-      <c r="B103" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="41"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="42"/>
     </row>
     <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="36"/>
-      <c r="B104" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C104" s="37"/>
-      <c r="D104" s="41"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="42"/>
     </row>
     <row r="105" customFormat="false" ht="162.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="36"/>
-      <c r="B105" s="43" t="s">
-        <v>264</v>
+      <c r="A105" s="37"/>
+      <c r="B105" s="44" t="s">
+        <v>265</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="36"/>
-      <c r="B106" s="43"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="323.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="36"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D107" s="41" t="s">
         <v>270</v>
       </c>
+      <c r="D107" s="42" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="36"/>
-      <c r="B108" s="43"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="13"/>
-      <c r="D108" s="39" t="s">
-        <v>271</v>
+      <c r="D108" s="40" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="36"/>
-      <c r="B109" s="43"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D109" s="41" t="s">
         <v>273</v>
       </c>
+      <c r="D109" s="42" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="256.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="36"/>
-      <c r="B110" s="43"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D110" s="39" t="s">
         <v>275</v>
       </c>
+      <c r="D110" s="40" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="36"/>
-      <c r="B111" s="43"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="13"/>
-      <c r="D111" s="41" t="s">
-        <v>276</v>
+      <c r="D111" s="42" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="36"/>
-      <c r="B112" s="43"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D112" s="41" t="s">
         <v>278</v>
       </c>
+      <c r="D112" s="42" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="36"/>
-      <c r="B113" s="44"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="45"/>
       <c r="C113" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D113" s="38" t="s">
         <v>280</v>
       </c>
+      <c r="D113" s="39" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="36"/>
-      <c r="B114" s="44"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="45"/>
       <c r="C114" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D114" s="38" t="s">
         <v>282</v>
       </c>
+      <c r="D114" s="39" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="36"/>
-      <c r="B115" s="44"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="45"/>
       <c r="C115" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="36"/>
-      <c r="B116" s="44"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="13"/>
       <c r="D116" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="36"/>
-      <c r="B117" s="44"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="274.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="36"/>
+      <c r="A118" s="37"/>
       <c r="B118" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C118" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="D118" s="29"/>
+      <c r="C118" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D118" s="30"/>
     </row>
     <row r="119" customFormat="false" ht="243.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="36"/>
+      <c r="A119" s="37"/>
       <c r="B119" s="13"/>
-      <c r="C119" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="D119" s="29"/>
+      <c r="C119" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="D119" s="30"/>
     </row>
     <row r="120" customFormat="false" ht="391.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="36"/>
+      <c r="A120" s="37"/>
       <c r="B120" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="231" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="36"/>
+      <c r="A121" s="37"/>
       <c r="B121" s="13"/>
-      <c r="C121" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="D121" s="29"/>
+      <c r="C121" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D121" s="30"/>
     </row>
     <row r="122" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="45" t="s">
-        <v>294</v>
+      <c r="A122" s="46" t="s">
+        <v>295</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="45"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="45"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="13"/>
       <c r="C124" s="14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="45"/>
+      <c r="A125" s="46"/>
       <c r="B125" s="13"/>
       <c r="C125" s="14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="45"/>
+      <c r="A126" s="46"/>
       <c r="B126" s="13"/>
       <c r="C126" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="45"/>
+      <c r="A127" s="46"/>
       <c r="B127" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="45"/>
+      <c r="A128" s="46"/>
       <c r="B128" s="13"/>
       <c r="C128" s="14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="45"/>
+      <c r="A129" s="46"/>
       <c r="B129" s="13"/>
       <c r="C129" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D129" s="15"/>
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="45"/>
+      <c r="A130" s="46"/>
       <c r="B130" s="13"/>
       <c r="C130" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D130" s="15"/>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="45"/>
+      <c r="A131" s="46"/>
       <c r="B131" s="13"/>
       <c r="C131" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D131" s="15"/>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="45"/>
+      <c r="A132" s="46"/>
       <c r="B132" s="13"/>
       <c r="C132" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D132" s="15"/>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="45"/>
+      <c r="A133" s="46"/>
       <c r="B133" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D133" s="15"/>
     </row>
     <row r="134" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="45"/>
+      <c r="A134" s="46"/>
       <c r="B134" s="13"/>
       <c r="C134" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D134" s="15"/>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="45"/>
+      <c r="A135" s="46"/>
       <c r="B135" s="13"/>
       <c r="C135" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D135" s="15"/>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="45"/>
+      <c r="A136" s="46"/>
       <c r="B136" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
@@ -15908,205 +15955,205 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="55.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="54.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="101.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="55.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="54.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="49" width="101.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
-        <v>320</v>
+      <c r="A1" s="50" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="54"/>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="50" t="s">
         <v>322</v>
       </c>
+      <c r="B26" s="48" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="49"/>
-      <c r="B27" s="47" t="s">
-        <v>323</v>
+      <c r="A27" s="50"/>
+      <c r="B27" s="48" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="49"/>
-      <c r="B28" s="47" t="s">
-        <v>324</v>
+      <c r="A28" s="50"/>
+      <c r="B28" s="48" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="B30" s="55" t="s">
+      <c r="A30" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="56" t="s">
         <v>327</v>
       </c>
+      <c r="C30" s="49" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="49"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="48" t="s">
-        <v>328</v>
+      <c r="A31" s="50"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="49" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="48" t="s">
-        <v>329</v>
+      <c r="A32" s="50"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="49" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="48" t="s">
-        <v>330</v>
+      <c r="A33" s="50"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="49" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="B35" s="48" t="s">
         <v>333</v>
       </c>
+      <c r="C35" s="57" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="49"/>
-      <c r="B36" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" s="56" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="48" t="s">
         <v>335</v>
       </c>
+      <c r="C36" s="57" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49"/>
-      <c r="B37" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" s="56" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="48" t="s">
         <v>337</v>
       </c>
+      <c r="C37" s="57" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49"/>
-      <c r="B38" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="C38" s="56" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="48" t="s">
         <v>339</v>
       </c>
+      <c r="C38" s="57" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="54" t="s">
-        <v>340</v>
+      <c r="A40" s="55" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -16142,17 +16189,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="151.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="151.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="41" t="s">
-        <v>341</v>
+      <c r="D1" s="42" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="349.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="41" t="s">
-        <v>342</v>
+      <c r="D2" s="42" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -16179,12 +16226,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="140"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="140"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="41" t="s">
-        <v>343</v>
+      <c r="C1" s="42" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -16216,67 +16263,67 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58" t="s">
-        <v>344</v>
+      <c r="A1" s="59" t="s">
+        <v>345</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="59" t="s">
         <v>346</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="200.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16284,240 +16331,240 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="60"/>
+      <c r="B23" s="61"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="61" t="s">
-        <v>395</v>
+      <c r="A54" s="62" t="s">
+        <v>396</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="61"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13"/>
-      <c r="B59" s="62" t="s">
-        <v>401</v>
+      <c r="B59" s="63" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13"/>
-      <c r="B60" s="62" t="s">
-        <v>402</v>
+      <c r="B60" s="63" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13"/>
-      <c r="B61" s="62" t="s">
-        <v>403</v>
+      <c r="B61" s="63" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13"/>
-      <c r="B62" s="62" t="s">
-        <v>404</v>
+      <c r="B62" s="63" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="62" t="s">
-        <v>405</v>
+      <c r="B63" s="63" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13"/>
-      <c r="B64" s="62" t="s">
-        <v>406</v>
+      <c r="B64" s="63" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -16557,100 +16604,100 @@
   <sheetData>
     <row r="1" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>426</v>
+      <c r="A11" s="38" t="s">
+        <v>427</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/System-Design-Architecture/Documents.xlsx
+++ b/System-Design-Architecture/Documents.xlsx
@@ -5,28 +5,29 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId3"/>
-    <sheet name="1. OOAD" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="2. Patterns" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="3. DBMS" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="3.Architechture" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Domain Driven Design" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Clean Architecture" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="4.Microservice" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="Saga Pattern" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Outbox Pattern" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="Load Balancing" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="2.Cache" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="API Gateway" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="Hexagonal Architecture" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="Onion Architecture" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="Event Driven Architecture" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="CQRS" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="KAFKA" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="Two phases commit" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="1. Clean Code" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Trang_tính1" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="2. OOAD" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="2. Patterns" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="3. DBMS" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="3.Architechture" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Domain Driven Design" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Clean Architecture" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="4.Microservice" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Saga Pattern" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Outbox Pattern" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="Load Balancing" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="2.Cache" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="API Gateway" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="Hexagonal Architecture" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="Onion Architecture" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="Event Driven Architecture" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="CQRS" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="KAFKA" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="Two phases commit" sheetId="20" state="visible" r:id="rId22"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +39,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="511">
+  <si>
+    <t xml:space="preserve">Clean Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaningful Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Intention-Revealing Names</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Choosing good names takes time but saves more than it takes. The name should tell you why it exists, what it does, and how it is used.</t>
+  </si>
   <si>
     <t xml:space="preserve">Kiến Trúc về Microservice</t>
   </si>
@@ -11806,7 +11819,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11830,6 +11843,28 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -11848,13 +11883,6 @@
       <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
@@ -11956,14 +11984,6 @@
       <i val="true"/>
       <u val="single"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -12124,30 +12144,46 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12155,19 +12191,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12179,7 +12211,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12203,11 +12235,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12215,7 +12247,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12223,19 +12255,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12243,19 +12271,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12263,43 +12303,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12307,11 +12331,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12319,51 +12343,51 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12375,39 +12399,39 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="3" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12415,11 +12439,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12427,11 +12451,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12525,9 +12549,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>588240</xdr:colOff>
+      <xdr:colOff>587520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2121120</xdr:rowOff>
+      <xdr:rowOff>2120400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12541,7 +12565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10237320" y="8324640"/>
-          <a:ext cx="4800960" cy="2798280"/>
+          <a:ext cx="4800240" cy="2797560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12562,9 +12586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>664560</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1797120</xdr:rowOff>
+      <xdr:rowOff>1796400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12578,7 +12602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10323000" y="11420280"/>
-          <a:ext cx="4791600" cy="2493360"/>
+          <a:ext cx="4790880" cy="2492640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12599,9 +12623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>521640</xdr:colOff>
+      <xdr:colOff>520920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>695880</xdr:rowOff>
+      <xdr:rowOff>695160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12615,7 +12639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10170720" y="24355440"/>
-          <a:ext cx="4800960" cy="2903040"/>
+          <a:ext cx="4800240" cy="2902320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12641,9 +12665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>279720</xdr:rowOff>
+      <xdr:rowOff>279000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12657,7 +12681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2791800" cy="1208520"/>
+          <a:ext cx="2791080" cy="1207800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12678,9 +12702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12694,7 +12718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2574000" cy="1284120"/>
+          <a:ext cx="2573280" cy="1283400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12715,9 +12739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>335880</xdr:rowOff>
+      <xdr:rowOff>335160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12731,7 +12755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4564080" cy="1331280"/>
+          <a:ext cx="4563360" cy="1330560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12752,9 +12776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
+      <xdr:colOff>291960</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>279720</xdr:rowOff>
+      <xdr:rowOff>279000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12768,7 +12792,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15397560" y="67237200"/>
-          <a:ext cx="2791800" cy="1208520"/>
+          <a:ext cx="2791080" cy="1207800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12789,9 +12813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12805,7 +12829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18540720" y="67199040"/>
-          <a:ext cx="2574000" cy="1284120"/>
+          <a:ext cx="2573280" cy="1283400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12826,9 +12850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>335880</xdr:rowOff>
+      <xdr:rowOff>335160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12842,7 +12866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15445080" y="68999400"/>
-          <a:ext cx="4564080" cy="1331280"/>
+          <a:ext cx="4563360" cy="1330560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12868,9 +12892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>46440</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>389520</xdr:rowOff>
+      <xdr:rowOff>388800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12884,7 +12908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11856600" y="0"/>
-          <a:ext cx="8207640" cy="4199040"/>
+          <a:ext cx="8206920" cy="4198320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13076,222 +13100,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="24.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="60.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="58.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="49.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="22.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="3" width="90.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="3" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="245.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="223.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="288.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="240.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13300,35 +13152,124 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="160.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="168"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+    <row r="1" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16"/>
+      <c r="B5" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39"/>
+      <c r="B12" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="39" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39"/>
+      <c r="B13" s="18" t="s">
         <v>434</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="Issues and considerations"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13344,6 +13285,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="160.3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -13352,79 +13337,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="64" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="65" width="125"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="36" width="60"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="36" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="65" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="125"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="60"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="37" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="121.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>436</v>
+      <c r="A1" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="138.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67" t="s">
-        <v>437</v>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="172.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>440</v>
+      <c r="A3" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>442</v>
+      <c r="A4" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="66.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B5" s="67"/>
+      <c r="A5" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
-        <v>444</v>
-      </c>
-      <c r="B6" s="67"/>
+      <c r="A6" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" s="67"/>
+      <c r="A7" s="65" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7" s="68"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="s">
-        <v>446</v>
+      <c r="A8" s="65" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
-        <v>447</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>448</v>
+      <c r="A9" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="64" t="s">
-        <v>449</v>
+      <c r="A10" s="65" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -13444,7 +13429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13457,304 +13442,304 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="58" width="38.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="110.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="38.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="110.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="69" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>451</v>
+      <c r="A1" s="70" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69"/>
-      <c r="B2" s="40" t="s">
-        <v>452</v>
+      <c r="A2" s="70"/>
+      <c r="B2" s="41" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69"/>
-      <c r="B3" s="40" t="s">
-        <v>453</v>
+      <c r="A3" s="70"/>
+      <c r="B3" s="41" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="s">
-        <v>454</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>455</v>
+      <c r="A4" s="70" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69"/>
-      <c r="B5" s="40" t="s">
-        <v>456</v>
+      <c r="A5" s="70"/>
+      <c r="B5" s="41" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69"/>
-      <c r="B6" s="40" t="s">
-        <v>457</v>
+      <c r="A6" s="70"/>
+      <c r="B6" s="41" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>459</v>
+      <c r="A7" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69"/>
-      <c r="B8" s="40" t="s">
-        <v>460</v>
+      <c r="A8" s="70"/>
+      <c r="B8" s="41" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69"/>
-      <c r="B9" s="40" t="s">
-        <v>461</v>
+      <c r="A9" s="70"/>
+      <c r="B9" s="41" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69"/>
-      <c r="B10" s="40" t="s">
-        <v>462</v>
+      <c r="A10" s="70"/>
+      <c r="B10" s="41" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69"/>
-      <c r="B11" s="40" t="s">
-        <v>463</v>
+      <c r="A11" s="70"/>
+      <c r="B11" s="41" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69" t="s">
-        <v>464</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>465</v>
+      <c r="A12" s="70" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="69"/>
-      <c r="B13" s="40" t="s">
-        <v>466</v>
+      <c r="A13" s="70"/>
+      <c r="B13" s="41" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="69"/>
-      <c r="B14" s="40" t="s">
-        <v>467</v>
+      <c r="A14" s="70"/>
+      <c r="B14" s="41" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69"/>
-      <c r="B15" s="40" t="s">
-        <v>468</v>
+      <c r="A15" s="70"/>
+      <c r="B15" s="41" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69"/>
-      <c r="B16" s="40" t="s">
-        <v>469</v>
+      <c r="A16" s="70"/>
+      <c r="B16" s="41" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69"/>
-      <c r="B17" s="40" t="s">
-        <v>470</v>
+      <c r="A17" s="70"/>
+      <c r="B17" s="41" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="69"/>
-      <c r="B18" s="40" t="s">
-        <v>471</v>
+      <c r="A18" s="70"/>
+      <c r="B18" s="41" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="69"/>
-      <c r="B19" s="40" t="s">
-        <v>472</v>
+      <c r="A19" s="70"/>
+      <c r="B19" s="41" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70" t="s">
-        <v>473</v>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="71" t="s">
-        <v>474</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>475</v>
+      <c r="A21" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="71"/>
-      <c r="B22" s="40" t="s">
-        <v>476</v>
+      <c r="A22" s="72"/>
+      <c r="B22" s="41" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="71"/>
-      <c r="B23" s="40" t="s">
-        <v>477</v>
+      <c r="A23" s="72"/>
+      <c r="B23" s="41" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="71"/>
-      <c r="B24" s="40" t="s">
-        <v>478</v>
+      <c r="A24" s="72"/>
+      <c r="B24" s="41" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="71"/>
-      <c r="B25" s="40" t="s">
-        <v>479</v>
+      <c r="A25" s="72"/>
+      <c r="B25" s="41" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="71"/>
-      <c r="B26" s="40" t="s">
-        <v>480</v>
+      <c r="A26" s="72"/>
+      <c r="B26" s="41" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="71"/>
-      <c r="B27" s="40" t="s">
-        <v>481</v>
+      <c r="A27" s="72"/>
+      <c r="B27" s="41" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="71"/>
-      <c r="B28" s="70" t="s">
-        <v>482</v>
+      <c r="A28" s="72"/>
+      <c r="B28" s="71" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>484</v>
+      <c r="A29" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41"/>
-      <c r="B30" s="40" t="s">
-        <v>485</v>
+      <c r="A30" s="42"/>
+      <c r="B30" s="41" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41"/>
-      <c r="B31" s="40" t="s">
-        <v>486</v>
+      <c r="A31" s="42"/>
+      <c r="B31" s="41" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41"/>
-      <c r="B32" s="40" t="s">
-        <v>487</v>
+      <c r="A32" s="42"/>
+      <c r="B32" s="41" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41"/>
-      <c r="B33" s="40" t="s">
-        <v>488</v>
+      <c r="A33" s="42"/>
+      <c r="B33" s="41" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="71" t="s">
-        <v>489</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>490</v>
+      <c r="A34" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="71"/>
-      <c r="B35" s="42" t="s">
-        <v>491</v>
+      <c r="A35" s="72"/>
+      <c r="B35" s="43" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="71"/>
-      <c r="B36" s="42" t="s">
-        <v>492</v>
+      <c r="A36" s="72"/>
+      <c r="B36" s="43" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="71"/>
-      <c r="B37" s="42" t="s">
-        <v>493</v>
+      <c r="A37" s="72"/>
+      <c r="B37" s="43" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="69" t="s">
-        <v>494</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>495</v>
+      <c r="A38" s="70" t="s">
+        <v>498</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="69"/>
-      <c r="B39" s="42" t="s">
-        <v>496</v>
+      <c r="A39" s="70"/>
+      <c r="B39" s="43" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="69"/>
-      <c r="B40" s="42" t="s">
-        <v>497</v>
+      <c r="A40" s="70"/>
+      <c r="B40" s="43" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="69"/>
-      <c r="B41" s="42" t="s">
-        <v>498</v>
+      <c r="A41" s="70"/>
+      <c r="B41" s="43" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="69"/>
-      <c r="B42" s="42" t="s">
-        <v>499</v>
+      <c r="A42" s="70"/>
+      <c r="B42" s="43" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="69"/>
-      <c r="B43" s="42" t="s">
-        <v>500</v>
+      <c r="A43" s="70"/>
+      <c r="B43" s="43" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="72"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="73" t="s">
-        <v>501</v>
-      </c>
-      <c r="B45" s="73"/>
+      <c r="A45" s="74" t="s">
+        <v>505</v>
+      </c>
+      <c r="B45" s="74"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="73"/>
-      <c r="B46" s="73"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="72" t="s">
-        <v>502</v>
-      </c>
-      <c r="B47" s="74" t="s">
-        <v>503</v>
+      <c r="A47" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -13783,7 +13768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13806,7 +13791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13829,7 +13814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13852,7 +13837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13875,7 +13860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13898,7 +13883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13921,7 +13906,231 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="39.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="95.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="60.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="58.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="49.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="5" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="245.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="223.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="288.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="240.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -13934,25 +14143,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="58" width="149.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="149.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="42" t="s">
-        <v>504</v>
+      <c r="B1" s="43" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>506</v>
+      <c r="A3" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="75"/>
+      <c r="B4" s="76"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13965,265 +14174,265 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="21.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="19.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="156.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="156.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>44</v>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>46</v>
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>48</v>
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="169.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14"/>
+      <c r="C10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="33.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="C10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="19"/>
+      <c r="D12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="129.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="307.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="134.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" customFormat="false" ht="307.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="134.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="16"/>
+      <c r="C21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="41.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="92.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="16"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="136.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="22"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="19"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -14263,7 +14472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14271,355 +14480,355 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="30.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="29.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="27.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="11.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="116.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="29.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="27.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="116.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27"/>
-      <c r="B3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" customFormat="false" ht="136.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="12"/>
+      <c r="D21" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28" t="s">
-        <v>122</v>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24" t="s">
-        <v>123</v>
+      <c r="A27" s="29"/>
+      <c r="B27" s="26" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24" t="s">
-        <v>124</v>
+      <c r="A28" s="29"/>
+      <c r="B28" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
-      <c r="B29" s="24" t="s">
-        <v>125</v>
+      <c r="A29" s="29"/>
+      <c r="B29" s="26" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24" t="s">
-        <v>126</v>
+      <c r="A30" s="29"/>
+      <c r="B30" s="26" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24" t="s">
-        <v>127</v>
+      <c r="A31" s="29"/>
+      <c r="B31" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24" t="s">
-        <v>128</v>
+      <c r="A32" s="29"/>
+      <c r="B32" s="26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27"/>
-      <c r="B33" s="24" t="s">
-        <v>129</v>
+      <c r="A33" s="29"/>
+      <c r="B33" s="26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27"/>
-      <c r="B34" s="24" t="s">
-        <v>130</v>
+      <c r="A34" s="29"/>
+      <c r="B34" s="26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27"/>
-      <c r="B35" s="24" t="s">
-        <v>131</v>
+      <c r="A35" s="29"/>
+      <c r="B35" s="26" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27"/>
-      <c r="B36" s="24" t="s">
-        <v>132</v>
+      <c r="A36" s="29"/>
+      <c r="B36" s="26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27"/>
-      <c r="B37" s="24" t="s">
-        <v>133</v>
+      <c r="A37" s="29"/>
+      <c r="B37" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
-        <v>134</v>
+      <c r="A38" s="29" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
     </row>
     <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27"/>
+      <c r="A41" s="29"/>
     </row>
     <row r="42" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
-        <v>135</v>
+      <c r="A43" s="25" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34" t="s">
-        <v>136</v>
+      <c r="A44" s="36" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34"/>
+      <c r="A45" s="36"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34"/>
+      <c r="A46" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -14663,7 +14872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -14676,1196 +14885,1196 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="20.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="36" width="167.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="36" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="37" width="167.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="37" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="15"/>
+      <c r="A1" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>141</v>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>144</v>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>146</v>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>148</v>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>150</v>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>152</v>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>154</v>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="15"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>157</v>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="15"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="14" t="s">
-        <v>159</v>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="17" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>163</v>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>165</v>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15" t="s">
-        <v>166</v>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="15" t="s">
-        <v>167</v>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15" t="s">
-        <v>168</v>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15" t="s">
-        <v>169</v>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="18" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15" t="s">
-        <v>170</v>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="15" t="s">
-        <v>171</v>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="18" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>173</v>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="15" t="s">
-        <v>174</v>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15" t="s">
-        <v>175</v>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="39" t="s">
-        <v>176</v>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="40" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="39" t="s">
-        <v>177</v>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="40" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="39" t="s">
-        <v>178</v>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="40" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="39" t="s">
-        <v>179</v>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="40" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15" t="s">
-        <v>180</v>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="18" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="39" t="s">
-        <v>181</v>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="40" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="39" t="s">
-        <v>182</v>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="40" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="39" t="s">
-        <v>183</v>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="40" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="15" t="s">
-        <v>184</v>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="40" t="s">
-        <v>185</v>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="41" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="39" t="s">
-        <v>186</v>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="40" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="377.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="39" t="s">
-        <v>187</v>
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="40" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="39" t="s">
-        <v>188</v>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="40" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="15" t="s">
-        <v>189</v>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="15" t="s">
-        <v>190</v>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="18" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="15" t="s">
-        <v>191</v>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="15"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>194</v>
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>197</v>
+      <c r="A43" s="38"/>
+      <c r="B43" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="431.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="15" t="s">
-        <v>198</v>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="18" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="592.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="15" t="s">
-        <v>199</v>
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="15" t="s">
-        <v>200</v>
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="18" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="15" t="s">
-        <v>201</v>
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="15" t="s">
-        <v>202</v>
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="15" t="s">
-        <v>203</v>
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="15" t="s">
-        <v>204</v>
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>206</v>
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="15" t="s">
-        <v>207</v>
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="15" t="s">
-        <v>208</v>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="15" t="s">
-        <v>209</v>
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="18" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="15" t="s">
-        <v>210</v>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="15"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="498.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>213</v>
+      <c r="A57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="15" t="s">
-        <v>214</v>
+      <c r="A58" s="38"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="18" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="15" t="s">
-        <v>215</v>
+      <c r="A59" s="38"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="15" t="s">
-        <v>216</v>
+      <c r="A60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>218</v>
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="15" t="s">
-        <v>219</v>
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="15" t="s">
-        <v>220</v>
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="37"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="15" t="s">
-        <v>221</v>
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="15" t="s">
-        <v>222</v>
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="37"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="15" t="s">
-        <v>223</v>
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="18" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="37"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>224</v>
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="37"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="15" t="s">
-        <v>225</v>
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="15" t="s">
-        <v>226</v>
+      <c r="A69" s="38"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="37"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="15" t="s">
-        <v>227</v>
+      <c r="A70" s="38"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="18" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="37"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="15" t="s">
-        <v>228</v>
+      <c r="A71" s="38"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="37"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="15" t="s">
-        <v>229</v>
+      <c r="A72" s="38"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="18" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="37"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="15" t="s">
-        <v>230</v>
+      <c r="A73" s="38"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="18" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="37"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="15" t="s">
-        <v>231</v>
+      <c r="A74" s="38"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="18" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="37"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="15" t="s">
-        <v>232</v>
+      <c r="A75" s="38"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="37"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="15" t="s">
-        <v>233</v>
+      <c r="A76" s="38"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="162.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="39" t="s">
-        <v>234</v>
+      <c r="A77" s="38"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="40" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="37"/>
-      <c r="B78" s="38"/>
-      <c r="D78" s="15" t="s">
-        <v>235</v>
+      <c r="A78" s="38"/>
+      <c r="B78" s="39"/>
+      <c r="D78" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="37"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>237</v>
+      <c r="A79" s="38"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>239</v>
+      <c r="A80" s="38"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="37"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="40" t="s">
-        <v>240</v>
+      <c r="A81" s="38"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="41" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="37"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42" t="s">
-        <v>241</v>
+      <c r="A82" s="38"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="43" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="37"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="42" t="s">
-        <v>242</v>
+      <c r="A83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="43" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="37"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="D84" s="42" t="s">
-        <v>244</v>
+      <c r="A84" s="38"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="37"/>
-      <c r="B85" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="42"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="39"/>
+      <c r="D85" s="43"/>
     </row>
     <row r="86" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="37"/>
-      <c r="B86" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="42"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="39"/>
+      <c r="D86" s="43"/>
     </row>
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="37"/>
-      <c r="B87" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="42"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" s="39"/>
+      <c r="D87" s="43"/>
     </row>
     <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="42"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="39"/>
+      <c r="D88" s="43"/>
     </row>
     <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="42"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="39"/>
+      <c r="D89" s="43"/>
     </row>
     <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="42"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="39"/>
+      <c r="D90" s="43"/>
     </row>
     <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="37"/>
-      <c r="B91" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="42"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="39"/>
+      <c r="D91" s="43"/>
     </row>
     <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="42"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="39"/>
+      <c r="D92" s="43"/>
     </row>
     <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="37"/>
-      <c r="B93" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="42"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="39"/>
+      <c r="D93" s="43"/>
     </row>
     <row r="94" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="37"/>
-      <c r="B94" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="42"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" s="39"/>
+      <c r="D94" s="43"/>
     </row>
     <row r="95" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="37"/>
-      <c r="B95" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="42"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="39"/>
+      <c r="D95" s="43"/>
     </row>
     <row r="96" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="37"/>
-      <c r="B96" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="42"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="39"/>
+      <c r="D96" s="43"/>
     </row>
     <row r="97" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="37"/>
-      <c r="B97" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="42"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="39"/>
+      <c r="D97" s="43"/>
     </row>
     <row r="98" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="37"/>
-      <c r="B98" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="C98" s="38"/>
-      <c r="D98" s="42"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" s="39"/>
+      <c r="D98" s="43"/>
     </row>
     <row r="99" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="37"/>
-      <c r="B99" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" s="38"/>
-      <c r="D99" s="42"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" s="39"/>
+      <c r="D99" s="43"/>
     </row>
     <row r="100" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="37"/>
-      <c r="B100" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="42"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="39"/>
+      <c r="D100" s="43"/>
     </row>
     <row r="101" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="42"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" s="39"/>
+      <c r="D101" s="43"/>
     </row>
     <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="37"/>
-      <c r="B102" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="42"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="39"/>
+      <c r="D102" s="43"/>
     </row>
     <row r="103" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="37"/>
-      <c r="B103" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="42"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C103" s="39"/>
+      <c r="D103" s="43"/>
     </row>
     <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="37"/>
-      <c r="B104" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="42"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="39"/>
+      <c r="D104" s="43"/>
     </row>
     <row r="105" customFormat="false" ht="162.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="37"/>
-      <c r="B105" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>267</v>
+      <c r="A105" s="38"/>
+      <c r="B105" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="37"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>269</v>
+      <c r="A106" s="38"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="323.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="37"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D107" s="42" t="s">
-        <v>271</v>
+      <c r="A107" s="38"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="37"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="40" t="s">
-        <v>272</v>
+      <c r="A108" s="38"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="41" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="37"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D109" s="42" t="s">
-        <v>274</v>
+      <c r="A109" s="38"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="43" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="256.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="37"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D110" s="40" t="s">
-        <v>276</v>
+      <c r="A110" s="38"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="37"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="42" t="s">
-        <v>277</v>
+      <c r="A111" s="38"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="43" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="37"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>279</v>
+      <c r="A112" s="38"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D112" s="43" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="37"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="D113" s="39" t="s">
-        <v>281</v>
+      <c r="A113" s="38"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="37"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="D114" s="39" t="s">
-        <v>283</v>
+      <c r="A114" s="38"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="95.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="37"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>285</v>
+      <c r="A115" s="38"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="37"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="15" t="s">
-        <v>286</v>
+      <c r="A116" s="38"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="18" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="37"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>288</v>
+      <c r="A117" s="38"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="274.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="37"/>
-      <c r="B118" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D118" s="30"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D118" s="32"/>
     </row>
     <row r="119" customFormat="false" ht="243.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="37"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="D119" s="30"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D119" s="32"/>
     </row>
     <row r="120" customFormat="false" ht="391.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="37"/>
-      <c r="B120" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D120" s="12"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" s="15"/>
     </row>
     <row r="121" customFormat="false" ht="231" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="37"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D121" s="30"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" s="32"/>
     </row>
     <row r="122" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D122" s="12"/>
+      <c r="A122" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" s="15"/>
     </row>
     <row r="123" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="46"/>
-      <c r="B123" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>300</v>
+      <c r="A123" s="47"/>
+      <c r="B123" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="46"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>302</v>
+      <c r="A124" s="47"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="46"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>304</v>
+      <c r="A125" s="47"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="46"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>306</v>
+      <c r="A126" s="47"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="46"/>
-      <c r="B127" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>309</v>
+      <c r="A127" s="47"/>
+      <c r="B127" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="46"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>311</v>
+      <c r="A128" s="47"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="46"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="D129" s="15"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D129" s="18"/>
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="46"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="D130" s="15"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" s="18"/>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="46"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="D131" s="15"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D131" s="18"/>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="46"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D132" s="15"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D132" s="18"/>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="46"/>
-      <c r="B133" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D133" s="15"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D133" s="18"/>
     </row>
     <row r="134" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="46"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D134" s="15"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D134" s="18"/>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="46"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D135" s="15"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D135" s="18"/>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="46"/>
-      <c r="B136" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -15942,7 +16151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15955,205 +16164,205 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="24" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="55.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="54.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="49" width="101.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="55.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="49" width="54.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="50" width="101.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
-        <v>321</v>
+      <c r="A1" s="51" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="54"/>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="54"/>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="55"/>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>323</v>
+      <c r="A26" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50"/>
-      <c r="B27" s="48" t="s">
-        <v>324</v>
+      <c r="A27" s="51"/>
+      <c r="B27" s="49" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="50"/>
-      <c r="B28" s="48" t="s">
-        <v>325</v>
+      <c r="A28" s="51"/>
+      <c r="B28" s="49" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>328</v>
+      <c r="A30" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="50"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="49" t="s">
-        <v>329</v>
+      <c r="A31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="50" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="50"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="49" t="s">
-        <v>330</v>
+      <c r="A32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="50" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="50"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="49" t="s">
-        <v>331</v>
+      <c r="A33" s="51"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="50" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>334</v>
+      <c r="A35" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>336</v>
+      <c r="A36" s="51"/>
+      <c r="B36" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>338</v>
+      <c r="A37" s="51"/>
+      <c r="B37" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="50"/>
-      <c r="B38" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>340</v>
+      <c r="A38" s="51"/>
+      <c r="B38" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="55" t="s">
-        <v>341</v>
+      <c r="A40" s="56" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -16176,7 +16385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -16189,49 +16398,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="58" width="151.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="59" width="151.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="42" t="s">
-        <v>342</v>
+      <c r="D1" s="43" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="349.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D2" s="42" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="58" width="140"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="42" t="s">
-        <v>344</v>
+      <c r="D2" s="43" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -16250,6 +16427,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="C1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="59" width="140"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -16258,313 +16467,313 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="109"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="109"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>347</v>
+      <c r="A1" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="200.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>349</v>
+      <c r="A2" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>351</v>
+      <c r="A3" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>353</v>
+      <c r="A4" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>355</v>
+      <c r="A5" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>356</v>
+      <c r="A6" s="8" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>358</v>
+      <c r="A7" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>360</v>
+      <c r="A8" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>362</v>
+      <c r="A12" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>364</v>
+      <c r="A13" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>366</v>
+      <c r="A14" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>368</v>
+      <c r="A15" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>370</v>
+      <c r="A16" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>372</v>
+      <c r="A17" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>374</v>
+      <c r="A18" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="310.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>376</v>
+      <c r="A19" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>377</v>
+      <c r="A20" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>378</v>
+      <c r="A22" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="61"/>
+      <c r="B23" s="62"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>379</v>
+      <c r="A25" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>380</v>
+      <c r="A28" s="8" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>382</v>
+      <c r="A31" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>384</v>
+      <c r="A33" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>386</v>
+      <c r="A34" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>387</v>
+      <c r="A36" s="8" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>388</v>
+      <c r="A38" s="8" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>389</v>
+      <c r="A40" s="8" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>390</v>
+      <c r="A42" s="8" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>391</v>
+      <c r="A44" s="8" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>392</v>
+      <c r="A46" s="8" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>393</v>
+      <c r="A48" s="8" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>394</v>
+      <c r="A50" s="8" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>395</v>
+      <c r="A52" s="8" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="62" t="s">
-        <v>396</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>397</v>
+      <c r="A54" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="62"/>
-      <c r="B55" s="4" t="s">
-        <v>398</v>
+      <c r="A55" s="63"/>
+      <c r="B55" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="62"/>
-      <c r="B56" s="4" t="s">
-        <v>399</v>
+      <c r="A56" s="63"/>
+      <c r="B56" s="8" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>401</v>
+      <c r="A58" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
-      <c r="B59" s="63" t="s">
-        <v>402</v>
+      <c r="A59" s="16"/>
+      <c r="B59" s="64" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13"/>
-      <c r="B60" s="63" t="s">
-        <v>403</v>
+      <c r="A60" s="16"/>
+      <c r="B60" s="64" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13"/>
-      <c r="B61" s="63" t="s">
-        <v>404</v>
+      <c r="A61" s="16"/>
+      <c r="B61" s="64" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13"/>
-      <c r="B62" s="63" t="s">
-        <v>405</v>
+      <c r="A62" s="16"/>
+      <c r="B62" s="64" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13"/>
-      <c r="B63" s="63" t="s">
-        <v>406</v>
+      <c r="A63" s="16"/>
+      <c r="B63" s="64" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13"/>
-      <c r="B64" s="63" t="s">
-        <v>407</v>
+      <c r="A64" s="16"/>
+      <c r="B64" s="64" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -16583,137 +16792,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="168"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="149.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38"/>
-      <c r="B12" s="15" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
-      <c r="B13" s="15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A11:A13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" display="Issues and considerations"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>